--- a/c2_ModelOutput.xlsx
+++ b/c2_ModelOutput.xlsx
@@ -553,7 +553,7 @@
         <v>12898</v>
       </c>
       <c r="M2" t="n">
-        <v>14315.91787490063</v>
+        <v>15253.25166666667</v>
       </c>
     </row>
     <row r="3">
@@ -614,7 +614,7 @@
         <v>10851</v>
       </c>
       <c r="M3" t="n">
-        <v>11790.91110790808</v>
+        <v>11371.87</v>
       </c>
     </row>
     <row r="4">
@@ -675,7 +675,7 @@
         <v>5704</v>
       </c>
       <c r="M4" t="n">
-        <v>6598.870889623118</v>
+        <v>6675.41</v>
       </c>
     </row>
     <row r="5">
@@ -736,7 +736,7 @@
         <v>11598</v>
       </c>
       <c r="M5" t="n">
-        <v>5633.707611993668</v>
+        <v>5902.208333333332</v>
       </c>
     </row>
     <row r="6">
@@ -797,7 +797,7 @@
         <v>9149</v>
       </c>
       <c r="M6" t="n">
-        <v>8655.744381816434</v>
+        <v>9302.711833333333</v>
       </c>
     </row>
     <row r="7">
@@ -858,7 +858,7 @@
         <v>4145</v>
       </c>
       <c r="M7" t="n">
-        <v>4265.604746039869</v>
+        <v>4125.93</v>
       </c>
     </row>
     <row r="8">
@@ -919,7 +919,7 @@
         <v>6195</v>
       </c>
       <c r="M8" t="n">
-        <v>5687.999564293238</v>
+        <v>5775.32</v>
       </c>
     </row>
     <row r="9">
@@ -980,7 +980,7 @@
         <v>6979</v>
       </c>
       <c r="M9" t="n">
-        <v>8567.490441670534</v>
+        <v>8210.889999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1041,7 +1041,7 @@
         <v>7276</v>
       </c>
       <c r="M10" t="n">
-        <v>6545.667743779069</v>
+        <v>6268.446666666667</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1102,7 @@
         <v>4760</v>
       </c>
       <c r="M11" t="n">
-        <v>5468.707075169213</v>
+        <v>5554.137</v>
       </c>
     </row>
     <row r="12">
@@ -1163,7 +1163,7 @@
         <v>11982</v>
       </c>
       <c r="M12" t="n">
-        <v>11920.41992262499</v>
+        <v>11982</v>
       </c>
     </row>
     <row r="13">
@@ -1224,7 +1224,7 @@
         <v>5277</v>
       </c>
       <c r="M13" t="n">
-        <v>4206.743465432896</v>
+        <v>4318.8</v>
       </c>
     </row>
     <row r="14">
@@ -1285,7 +1285,7 @@
         <v>8372</v>
       </c>
       <c r="M14" t="n">
-        <v>8438.219225879588</v>
+        <v>8351.040000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1346,7 +1346,7 @@
         <v>4226</v>
       </c>
       <c r="M15" t="n">
-        <v>4385.011698380715</v>
+        <v>4274.02</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1407,7 @@
         <v>3597</v>
       </c>
       <c r="M16" t="n">
-        <v>3601.221571509649</v>
+        <v>3598.96</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7005</v>
       </c>
       <c r="M17" t="n">
-        <v>7698.339520262618</v>
+        <v>7483.51</v>
       </c>
     </row>
     <row r="18">
@@ -1529,7 +1529,7 @@
         <v>8018</v>
       </c>
       <c r="M18" t="n">
-        <v>9529.457719752145</v>
+        <v>9659.115</v>
       </c>
     </row>
     <row r="19">
@@ -1590,7 +1590,7 @@
         <v>10577</v>
       </c>
       <c r="M19" t="n">
-        <v>11959.0678410218</v>
+        <v>11647.20266666667</v>
       </c>
     </row>
     <row r="20">
@@ -1651,7 +1651,7 @@
         <v>11507</v>
       </c>
       <c r="M20" t="n">
-        <v>11947.05971635639</v>
+        <v>12296.08023809524</v>
       </c>
     </row>
     <row r="21">
@@ -1712,7 +1712,7 @@
         <v>9653</v>
       </c>
       <c r="M21" t="n">
-        <v>10553.15808877681</v>
+        <v>10254.26</v>
       </c>
     </row>
     <row r="22">
@@ -1773,7 +1773,7 @@
         <v>4160</v>
       </c>
       <c r="M22" t="n">
-        <v>6442.710913369424</v>
+        <v>7687.416666666666</v>
       </c>
     </row>
     <row r="23">
@@ -1834,7 +1834,7 @@
         <v>14714</v>
       </c>
       <c r="M23" t="n">
-        <v>12213.72734142592</v>
+        <v>11840.848</v>
       </c>
     </row>
     <row r="24">
@@ -1895,7 +1895,7 @@
         <v>5678</v>
       </c>
       <c r="M24" t="n">
-        <v>4416.330436314727</v>
+        <v>3803.131666666667</v>
       </c>
     </row>
     <row r="25">
@@ -1956,7 +1956,7 @@
         <v>13873</v>
       </c>
       <c r="M25" t="n">
-        <v>13094.75129718658</v>
+        <v>12859.46</v>
       </c>
     </row>
     <row r="26">
@@ -2017,7 +2017,7 @@
         <v>11264</v>
       </c>
       <c r="M26" t="n">
-        <v>10286.74524441746</v>
+        <v>10562.59</v>
       </c>
     </row>
     <row r="27">
@@ -2078,7 +2078,7 @@
         <v>11134</v>
       </c>
       <c r="M27" t="n">
-        <v>12647.6784810615</v>
+        <v>13290.59985714286</v>
       </c>
     </row>
     <row r="28">
@@ -2139,7 +2139,7 @@
         <v>6151</v>
       </c>
       <c r="M28" t="n">
-        <v>6507.440291052055</v>
+        <v>6833.94</v>
       </c>
     </row>
     <row r="29">
@@ -2200,7 +2200,7 @@
         <v>10844</v>
       </c>
       <c r="M29" t="n">
-        <v>13444.21790624547</v>
+        <v>13907.52916666667</v>
       </c>
     </row>
     <row r="30">
@@ -2261,7 +2261,7 @@
         <v>13014</v>
       </c>
       <c r="M30" t="n">
-        <v>11477.99905061368</v>
+        <v>10643.2775</v>
       </c>
     </row>
     <row r="31">
@@ -2322,7 +2322,7 @@
         <v>4995</v>
       </c>
       <c r="M31" t="n">
-        <v>6388.614250868488</v>
+        <v>7389.59</v>
       </c>
     </row>
     <row r="32">
@@ -2383,7 +2383,7 @@
         <v>4174</v>
       </c>
       <c r="M32" t="n">
-        <v>4540.112127728366</v>
+        <v>4631.08</v>
       </c>
     </row>
     <row r="33">
@@ -2444,7 +2444,7 @@
         <v>12841</v>
       </c>
       <c r="M33" t="n">
-        <v>8974.90275601764</v>
+        <v>9460.301333333333</v>
       </c>
     </row>
     <row r="34">
@@ -2505,7 +2505,7 @@
         <v>13067</v>
       </c>
       <c r="M34" t="n">
-        <v>11801.1524234144</v>
+        <v>11864.02283333333</v>
       </c>
     </row>
     <row r="35">
@@ -2566,7 +2566,7 @@
         <v>10262</v>
       </c>
       <c r="M35" t="n">
-        <v>10538.52958110564</v>
+        <v>10213.16</v>
       </c>
     </row>
     <row r="36">
@@ -2627,7 +2627,7 @@
         <v>4423</v>
       </c>
       <c r="M36" t="n">
-        <v>4176.642296690149</v>
+        <v>4134.933333333333</v>
       </c>
     </row>
     <row r="37">
@@ -2688,7 +2688,7 @@
         <v>8586</v>
       </c>
       <c r="M37" t="n">
-        <v>10960.92404105353</v>
+        <v>11182.96516666667</v>
       </c>
     </row>
     <row r="38">
@@ -2749,7 +2749,7 @@
         <v>9663</v>
       </c>
       <c r="M38" t="n">
-        <v>11344.70004052484</v>
+        <v>11033.29733333333</v>
       </c>
     </row>
     <row r="39">
@@ -2810,7 +2810,7 @@
         <v>6069</v>
       </c>
       <c r="M39" t="n">
-        <v>6663.25577130441</v>
+        <v>6308.18</v>
       </c>
     </row>
     <row r="40">
@@ -2871,7 +2871,7 @@
         <v>4667</v>
       </c>
       <c r="M40" t="n">
-        <v>4640.214671445012</v>
+        <v>4625.45</v>
       </c>
     </row>
     <row r="41">
@@ -2932,7 +2932,7 @@
         <v>12373</v>
       </c>
       <c r="M41" t="n">
-        <v>14296.13623818892</v>
+        <v>15202.815</v>
       </c>
     </row>
     <row r="42">
@@ -2993,7 +2993,7 @@
         <v>13941</v>
       </c>
       <c r="M42" t="n">
-        <v>10650.86305096608</v>
+        <v>9250.761666666665</v>
       </c>
     </row>
     <row r="43">
@@ -3054,7 +3054,7 @@
         <v>3175</v>
       </c>
       <c r="M43" t="n">
-        <v>3241.605233339679</v>
+        <v>3688.95</v>
       </c>
     </row>
     <row r="44">
@@ -3115,7 +3115,7 @@
         <v>8372</v>
       </c>
       <c r="M44" t="n">
-        <v>8617.999265136492</v>
+        <v>8510.190000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3176,7 +3176,7 @@
         <v>5613</v>
       </c>
       <c r="M45" t="n">
-        <v>5547.927136399804</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="46">
@@ -3237,7 +3237,7 @@
         <v>7144</v>
       </c>
       <c r="M46" t="n">
-        <v>6927.722843224005</v>
+        <v>6987.64</v>
       </c>
     </row>
     <row r="47">
@@ -3298,7 +3298,7 @@
         <v>14571</v>
       </c>
       <c r="M47" t="n">
-        <v>12729.71397529023</v>
+        <v>12883.22940476191</v>
       </c>
     </row>
     <row r="48">
@@ -3359,7 +3359,7 @@
         <v>5277</v>
       </c>
       <c r="M48" t="n">
-        <v>4854.450606789346</v>
+        <v>5052.965833333333</v>
       </c>
     </row>
     <row r="49">
@@ -3420,7 +3420,7 @@
         <v>2759</v>
       </c>
       <c r="M49" t="n">
-        <v>6390.129002932542</v>
+        <v>6054.701666666668</v>
       </c>
     </row>
     <row r="50">
@@ -3481,7 +3481,7 @@
         <v>5192</v>
       </c>
       <c r="M50" t="n">
-        <v>5616.152367120622</v>
+        <v>5568.31</v>
       </c>
     </row>
     <row r="51">
@@ -3542,7 +3542,7 @@
         <v>14714</v>
       </c>
       <c r="M51" t="n">
-        <v>13079.275166158</v>
+        <v>13055.838</v>
       </c>
     </row>
     <row r="52">
@@ -3603,7 +3603,7 @@
         <v>10336</v>
       </c>
       <c r="M52" t="n">
-        <v>9548.388755923093</v>
+        <v>9119.33</v>
       </c>
     </row>
     <row r="53">
@@ -3664,7 +3664,7 @@
         <v>31945</v>
       </c>
       <c r="M53" t="n">
-        <v>5640.861434387184</v>
+        <v>6438.0175</v>
       </c>
     </row>
     <row r="54">
@@ -3725,7 +3725,7 @@
         <v>7064</v>
       </c>
       <c r="M54" t="n">
-        <v>8014.020270332487</v>
+        <v>7521.900833333334</v>
       </c>
     </row>
     <row r="55">
@@ -3786,7 +3786,7 @@
         <v>14441</v>
       </c>
       <c r="M55" t="n">
-        <v>14953.07891533223</v>
+        <v>13385.3025</v>
       </c>
     </row>
     <row r="56">
@@ -3847,7 +3847,7 @@
         <v>17493</v>
       </c>
       <c r="M56" t="n">
-        <v>16632.10348810162</v>
+        <v>17534.78083333333</v>
       </c>
     </row>
     <row r="57">
@@ -3908,7 +3908,7 @@
         <v>10844</v>
       </c>
       <c r="M57" t="n">
-        <v>11259.19064356704</v>
+        <v>11040.81866666667</v>
       </c>
     </row>
     <row r="58">
@@ -3969,7 +3969,7 @@
         <v>2753</v>
       </c>
       <c r="M58" t="n">
-        <v>2251.741123038762</v>
+        <v>2531.239</v>
       </c>
     </row>
     <row r="59">
@@ -4030,7 +4030,7 @@
         <v>12898</v>
       </c>
       <c r="M59" t="n">
-        <v>12870.32063730248</v>
+        <v>12927.53</v>
       </c>
     </row>
     <row r="60">
@@ -4091,7 +4091,7 @@
         <v>7229</v>
       </c>
       <c r="M60" t="n">
-        <v>5979.234863945406</v>
+        <v>5253.653333333334</v>
       </c>
     </row>
     <row r="61">
@@ -4152,7 +4152,7 @@
         <v>8603</v>
       </c>
       <c r="M61" t="n">
-        <v>10396.96237057426</v>
+        <v>10281.19</v>
       </c>
     </row>
     <row r="62">
@@ -4213,7 +4213,7 @@
         <v>15129</v>
       </c>
       <c r="M62" t="n">
-        <v>14427.32642008463</v>
+        <v>14976.225</v>
       </c>
     </row>
     <row r="63">
@@ -4274,7 +4274,7 @@
         <v>18804</v>
       </c>
       <c r="M63" t="n">
-        <v>16293.56159352424</v>
+        <v>16936.116</v>
       </c>
     </row>
     <row r="64">
@@ -4335,7 +4335,7 @@
         <v>7452</v>
       </c>
       <c r="M64" t="n">
-        <v>6563.838072532162</v>
+        <v>6537.71</v>
       </c>
     </row>
     <row r="65">
@@ -4396,7 +4396,7 @@
         <v>3971</v>
       </c>
       <c r="M65" t="n">
-        <v>4473.304110767207</v>
+        <v>4239.605666666666</v>
       </c>
     </row>
     <row r="66">
@@ -4457,7 +4457,7 @@
         <v>3943</v>
       </c>
       <c r="M66" t="n">
-        <v>4026.650848017415</v>
+        <v>4146.07</v>
       </c>
     </row>
     <row r="67">
@@ -4518,7 +4518,7 @@
         <v>9165</v>
       </c>
       <c r="M67" t="n">
-        <v>8569.303509552381</v>
+        <v>8659.52</v>
       </c>
     </row>
     <row r="68">
@@ -4579,7 +4579,7 @@
         <v>13014</v>
       </c>
       <c r="M68" t="n">
-        <v>12240.89550406428</v>
+        <v>12193.89645238095</v>
       </c>
     </row>
     <row r="69">
@@ -4640,7 +4640,7 @@
         <v>3625</v>
       </c>
       <c r="M69" t="n">
-        <v>3756.495417105426</v>
+        <v>3749.814666666667</v>
       </c>
     </row>
     <row r="70">
@@ -4701,7 +4701,7 @@
         <v>10262</v>
       </c>
       <c r="M70" t="n">
-        <v>10278.93330484175</v>
+        <v>10271.6</v>
       </c>
     </row>
     <row r="71">
@@ -4762,7 +4762,7 @@
         <v>14388</v>
       </c>
       <c r="M71" t="n">
-        <v>12012.50755527777</v>
+        <v>12741.445</v>
       </c>
     </row>
     <row r="72">
@@ -4823,7 +4823,7 @@
         <v>15058</v>
       </c>
       <c r="M72" t="n">
-        <v>14281.9110531517</v>
+        <v>14465.93</v>
       </c>
     </row>
     <row r="73">
@@ -4884,7 +4884,7 @@
         <v>14882</v>
       </c>
       <c r="M73" t="n">
-        <v>14050.13375966138</v>
+        <v>13773.7</v>
       </c>
     </row>
     <row r="74">
@@ -4945,7 +4945,7 @@
         <v>4591</v>
       </c>
       <c r="M74" t="n">
-        <v>4200.768108344547</v>
+        <v>4459.3</v>
       </c>
     </row>
     <row r="75">
@@ -5006,7 +5006,7 @@
         <v>3841</v>
       </c>
       <c r="M75" t="n">
-        <v>3872.376100930574</v>
+        <v>3865.533333333334</v>
       </c>
     </row>
     <row r="76">
@@ -5067,7 +5067,7 @@
         <v>14781</v>
       </c>
       <c r="M76" t="n">
-        <v>12238.7213500723</v>
+        <v>11761.373</v>
       </c>
     </row>
     <row r="77">
@@ -5128,7 +5128,7 @@
         <v>3841</v>
       </c>
       <c r="M77" t="n">
-        <v>3911.995340369819</v>
+        <v>3876.375333333334</v>
       </c>
     </row>
     <row r="78">
@@ -5189,7 +5189,7 @@
         <v>13377</v>
       </c>
       <c r="M78" t="n">
-        <v>12890.90660192622</v>
+        <v>13342.07</v>
       </c>
     </row>
     <row r="79">
@@ -5250,7 +5250,7 @@
         <v>13014</v>
       </c>
       <c r="M79" t="n">
-        <v>11736.48780508725</v>
+        <v>11016.60583333333</v>
       </c>
     </row>
     <row r="80">
@@ -5311,7 +5311,7 @@
         <v>14848</v>
       </c>
       <c r="M80" t="n">
-        <v>14258.77337191959</v>
+        <v>14890.84</v>
       </c>
     </row>
     <row r="81">
@@ -5372,7 +5372,7 @@
         <v>4145</v>
       </c>
       <c r="M81" t="n">
-        <v>4311.339694918213</v>
+        <v>4147.77</v>
       </c>
     </row>
     <row r="82">
@@ -5433,7 +5433,7 @@
         <v>3850</v>
       </c>
       <c r="M82" t="n">
-        <v>3845.625152591434</v>
+        <v>3852.27</v>
       </c>
     </row>
     <row r="83">
@@ -5494,7 +5494,7 @@
         <v>10413</v>
       </c>
       <c r="M83" t="n">
-        <v>10586.17370885266</v>
+        <v>10754.48</v>
       </c>
     </row>
     <row r="84">
@@ -5555,7 +5555,7 @@
         <v>6104</v>
       </c>
       <c r="M84" t="n">
-        <v>6843.218644100547</v>
+        <v>6853.54</v>
       </c>
     </row>
     <row r="85">
@@ -5616,7 +5616,7 @@
         <v>3943</v>
       </c>
       <c r="M85" t="n">
-        <v>4542.737862337195</v>
+        <v>4359.29</v>
       </c>
     </row>
     <row r="86">
@@ -5677,7 +5677,7 @@
         <v>8529</v>
       </c>
       <c r="M86" t="n">
-        <v>11474.96121161944</v>
+        <v>11680.59333333333</v>
       </c>
     </row>
     <row r="87">
@@ -5738,7 +5738,7 @@
         <v>10262</v>
       </c>
       <c r="M87" t="n">
-        <v>10813.5259459105</v>
+        <v>10535.53666666667</v>
       </c>
     </row>
     <row r="88">
@@ -5799,7 +5799,7 @@
         <v>14151</v>
       </c>
       <c r="M88" t="n">
-        <v>12876.93114193013</v>
+        <v>13062.75333333333</v>
       </c>
     </row>
     <row r="89">
@@ -5860,7 +5860,7 @@
         <v>5192</v>
       </c>
       <c r="M89" t="n">
-        <v>7380.431760542488</v>
+        <v>6821.12</v>
       </c>
     </row>
     <row r="90">
@@ -5921,7 +5921,7 @@
         <v>9663</v>
       </c>
       <c r="M90" t="n">
-        <v>11779.40814961871</v>
+        <v>11595.77216666667</v>
       </c>
     </row>
     <row r="91">
@@ -5982,7 +5982,7 @@
         <v>4632</v>
       </c>
       <c r="M91" t="n">
-        <v>4474.625742551555</v>
+        <v>4601.145</v>
       </c>
     </row>
     <row r="92">
@@ -6043,7 +6043,7 @@
         <v>5073</v>
       </c>
       <c r="M92" t="n">
-        <v>5451.102220815274</v>
+        <v>5320.36</v>
       </c>
     </row>
     <row r="93">
@@ -6104,7 +6104,7 @@
         <v>9526</v>
       </c>
       <c r="M93" t="n">
-        <v>8082.500216983305</v>
+        <v>8330.66</v>
       </c>
     </row>
     <row r="94">
@@ -6165,7 +6165,7 @@
         <v>4423</v>
       </c>
       <c r="M94" t="n">
-        <v>4270.683301688097</v>
+        <v>4351.79</v>
       </c>
     </row>
     <row r="95">
@@ -6226,7 +6226,7 @@
         <v>2227</v>
       </c>
       <c r="M95" t="n">
-        <v>2253.449486800608</v>
+        <v>2248.65</v>
       </c>
     </row>
     <row r="96">
@@ -6287,7 +6287,7 @@
         <v>5403</v>
       </c>
       <c r="M96" t="n">
-        <v>6036.164652336385</v>
+        <v>5806.366</v>
       </c>
     </row>
     <row r="97">
@@ -6348,7 +6348,7 @@
         <v>3858</v>
       </c>
       <c r="M97" t="n">
-        <v>4349.735417065018</v>
+        <v>4128.7</v>
       </c>
     </row>
     <row r="98">
@@ -6409,7 +6409,7 @@
         <v>18752</v>
       </c>
       <c r="M98" t="n">
-        <v>15860.086532393</v>
+        <v>16175.18783333333</v>
       </c>
     </row>
     <row r="99">
@@ -6470,7 +6470,7 @@
         <v>9663</v>
       </c>
       <c r="M99" t="n">
-        <v>13031.97737650314</v>
+        <v>13887.7175</v>
       </c>
     </row>
     <row r="100">
@@ -6531,7 +6531,7 @@
         <v>12819</v>
       </c>
       <c r="M100" t="n">
-        <v>13315.80964073966</v>
+        <v>12938.82011904762</v>
       </c>
     </row>
     <row r="101">
@@ -6592,7 +6592,7 @@
         <v>6883</v>
       </c>
       <c r="M101" t="n">
-        <v>9268.86148243848</v>
+        <v>10856.20833333333</v>
       </c>
     </row>
     <row r="102">
@@ -6653,7 +6653,7 @@
         <v>7198</v>
       </c>
       <c r="M102" t="n">
-        <v>7836.985063293409</v>
+        <v>7367.5975</v>
       </c>
     </row>
     <row r="103">
@@ -6714,7 +6714,7 @@
         <v>7801</v>
       </c>
       <c r="M103" t="n">
-        <v>8664.742123284579</v>
+        <v>9252.274761904762</v>
       </c>
     </row>
     <row r="104">
@@ -6775,7 +6775,7 @@
         <v>4823</v>
       </c>
       <c r="M104" t="n">
-        <v>4907.253834554241</v>
+        <v>4910.82</v>
       </c>
     </row>
     <row r="105">
@@ -6836,7 +6836,7 @@
         <v>9663</v>
       </c>
       <c r="M105" t="n">
-        <v>11991.19758745884</v>
+        <v>13312.8625</v>
       </c>
     </row>
     <row r="106">
@@ -6897,7 +6897,7 @@
         <v>12121</v>
       </c>
       <c r="M106" t="n">
-        <v>12336.57270022815</v>
+        <v>12550.60166666667</v>
       </c>
     </row>
     <row r="107">
@@ -6958,7 +6958,7 @@
         <v>8085</v>
       </c>
       <c r="M107" t="n">
-        <v>8776.901001220549</v>
+        <v>8774.5</v>
       </c>
     </row>
     <row r="108">
@@ -7019,7 +7019,7 @@
         <v>8662</v>
       </c>
       <c r="M108" t="n">
-        <v>8528.983265979947</v>
+        <v>7621.115</v>
       </c>
     </row>
     <row r="109">
@@ -7080,7 +7080,7 @@
         <v>6017</v>
       </c>
       <c r="M109" t="n">
-        <v>9886.369792451296</v>
+        <v>9310.949476190475</v>
       </c>
     </row>
     <row r="110">
@@ -7141,7 +7141,7 @@
         <v>3859</v>
       </c>
       <c r="M110" t="n">
-        <v>3617.427937622472</v>
+        <v>3663.468</v>
       </c>
     </row>
     <row r="111">
@@ -7202,7 +7202,7 @@
         <v>7564</v>
       </c>
       <c r="M111" t="n">
-        <v>7594.553064547979</v>
+        <v>7559.42</v>
       </c>
     </row>
     <row r="112">
@@ -7263,7 +7263,7 @@
         <v>3919</v>
       </c>
       <c r="M112" t="n">
-        <v>3651.445595075632</v>
+        <v>3852.98</v>
       </c>
     </row>
     <row r="113">
@@ -7324,7 +7324,7 @@
         <v>15129</v>
       </c>
       <c r="M113" t="n">
-        <v>14427.32642008463</v>
+        <v>14976.225</v>
       </c>
     </row>
     <row r="114">
@@ -7385,7 +7385,7 @@
         <v>26890</v>
       </c>
       <c r="M114" t="n">
-        <v>26367.23968334468</v>
+        <v>25321.36</v>
       </c>
     </row>
     <row r="115">
@@ -7446,7 +7446,7 @@
         <v>5443</v>
       </c>
       <c r="M115" t="n">
-        <v>7419.626007265799</v>
+        <v>8061.55</v>
       </c>
     </row>
     <row r="116">
@@ -7507,7 +7507,7 @@
         <v>6860</v>
       </c>
       <c r="M116" t="n">
-        <v>7147.460401756272</v>
+        <v>7005.633333333334</v>
       </c>
     </row>
     <row r="117">
@@ -7568,7 +7568,7 @@
         <v>13364</v>
       </c>
       <c r="M117" t="n">
-        <v>11687.3238120139</v>
+        <v>12552.48916666667</v>
       </c>
     </row>
     <row r="118">
@@ -7629,7 +7629,7 @@
         <v>12239</v>
       </c>
       <c r="M118" t="n">
-        <v>14154.58896328784</v>
+        <v>14962.97</v>
       </c>
     </row>
     <row r="119">
@@ -7690,7 +7690,7 @@
         <v>4966</v>
       </c>
       <c r="M119" t="n">
-        <v>5223.446123637897</v>
+        <v>5108.86</v>
       </c>
     </row>
     <row r="120">
@@ -7751,7 +7751,7 @@
         <v>6144</v>
       </c>
       <c r="M120" t="n">
-        <v>8706.44232375594</v>
+        <v>8156.340666666668</v>
       </c>
     </row>
     <row r="121">
@@ -7812,7 +7812,7 @@
         <v>12373</v>
       </c>
       <c r="M121" t="n">
-        <v>13411.00293759973</v>
+        <v>13472.6425</v>
       </c>
     </row>
     <row r="122">
@@ -7873,7 +7873,7 @@
         <v>10835</v>
       </c>
       <c r="M122" t="n">
-        <v>12408.7664523379</v>
+        <v>11888.17</v>
       </c>
     </row>
     <row r="123">
@@ -7934,7 +7934,7 @@
         <v>7952</v>
       </c>
       <c r="M123" t="n">
-        <v>7504.54329623616</v>
+        <v>7615.2</v>
       </c>
     </row>
     <row r="124">
@@ -7995,7 +7995,7 @@
         <v>3419</v>
       </c>
       <c r="M124" t="n">
-        <v>4151.666697476868</v>
+        <v>3880.91</v>
       </c>
     </row>
     <row r="125">
@@ -8056,7 +8056,7 @@
         <v>10197</v>
       </c>
       <c r="M125" t="n">
-        <v>10642.44764645428</v>
+        <v>10338.05</v>
       </c>
     </row>
     <row r="126">
@@ -8117,7 +8117,7 @@
         <v>5883</v>
       </c>
       <c r="M126" t="n">
-        <v>6470.131065037616</v>
+        <v>6325.97</v>
       </c>
     </row>
     <row r="127">
@@ -8178,7 +8178,7 @@
         <v>4667</v>
       </c>
       <c r="M127" t="n">
-        <v>4634.186457576463</v>
+        <v>4668.56</v>
       </c>
     </row>
     <row r="128">
@@ -8239,7 +8239,7 @@
         <v>6223</v>
       </c>
       <c r="M128" t="n">
-        <v>8737.823571455194</v>
+        <v>8370.045</v>
       </c>
     </row>
     <row r="129">
@@ -8300,7 +8300,7 @@
         <v>7757</v>
       </c>
       <c r="M129" t="n">
-        <v>11344.19272543282</v>
+        <v>10309.35716666666</v>
       </c>
     </row>
     <row r="130">
@@ -8361,7 +8361,7 @@
         <v>11873</v>
       </c>
       <c r="M130" t="n">
-        <v>13710.92226773005</v>
+        <v>14627.01</v>
       </c>
     </row>
     <row r="131">
@@ -8422,7 +8422,7 @@
         <v>10844</v>
       </c>
       <c r="M131" t="n">
-        <v>12270.68739659829</v>
+        <v>13051.04066666667</v>
       </c>
     </row>
     <row r="132">
@@ -8483,7 +8483,7 @@
         <v>7189</v>
       </c>
       <c r="M132" t="n">
-        <v>6537.241633276535</v>
+        <v>6295.62</v>
       </c>
     </row>
     <row r="133">
@@ -8544,7 +8544,7 @@
         <v>10262</v>
       </c>
       <c r="M133" t="n">
-        <v>10488.21358664586</v>
+        <v>10431.89</v>
       </c>
     </row>
     <row r="134">
@@ -8605,7 +8605,7 @@
         <v>5989</v>
       </c>
       <c r="M134" t="n">
-        <v>4284.776788763832</v>
+        <v>4317.92</v>
       </c>
     </row>
     <row r="135">
@@ -8666,7 +8666,7 @@
         <v>2227</v>
       </c>
       <c r="M135" t="n">
-        <v>2255.170322023858</v>
+        <v>2277.4</v>
       </c>
     </row>
     <row r="136">
@@ -8727,7 +8727,7 @@
         <v>4995</v>
       </c>
       <c r="M136" t="n">
-        <v>6242.580614930036</v>
+        <v>7578.276666666668</v>
       </c>
     </row>
     <row r="137">
@@ -8788,7 +8788,7 @@
         <v>14231</v>
       </c>
       <c r="M137" t="n">
-        <v>11765.95245266576</v>
+        <v>11487.75966666666</v>
       </c>
     </row>
     <row r="138">
@@ -8849,7 +8849,7 @@
         <v>10844</v>
       </c>
       <c r="M138" t="n">
-        <v>11171.13372703594</v>
+        <v>11037.242</v>
       </c>
     </row>
     <row r="139">
@@ -8910,7 +8910,7 @@
         <v>5628</v>
       </c>
       <c r="M139" t="n">
-        <v>12166.96858339039</v>
+        <v>12007.2</v>
       </c>
     </row>
     <row r="140">
@@ -8971,7 +8971,7 @@
         <v>10844</v>
       </c>
       <c r="M140" t="n">
-        <v>12155.64878537117</v>
+        <v>13529.35583333333</v>
       </c>
     </row>
     <row r="141">
@@ -9032,7 +9032,7 @@
         <v>8937</v>
       </c>
       <c r="M141" t="n">
-        <v>8084.173795736525</v>
+        <v>7838.53</v>
       </c>
     </row>
     <row r="142">
@@ -9093,7 +9093,7 @@
         <v>5618</v>
       </c>
       <c r="M142" t="n">
-        <v>5235.190281163885</v>
+        <v>5391.06</v>
       </c>
     </row>
     <row r="143">
@@ -9154,7 +9154,7 @@
         <v>6674</v>
       </c>
       <c r="M143" t="n">
-        <v>6833.160197414153</v>
+        <v>6802.59</v>
       </c>
     </row>
     <row r="144">
@@ -9215,7 +9215,7 @@
         <v>3898</v>
       </c>
       <c r="M144" t="n">
-        <v>4329.977323004678</v>
+        <v>4236.491666666667</v>
       </c>
     </row>
     <row r="145">
@@ -9276,7 +9276,7 @@
         <v>10844</v>
       </c>
       <c r="M145" t="n">
-        <v>11025.35658989139</v>
+        <v>10938.86</v>
       </c>
     </row>
     <row r="146">
@@ -9337,7 +9337,7 @@
         <v>13381</v>
       </c>
       <c r="M146" t="n">
-        <v>13043.44966888324</v>
+        <v>13573.87</v>
       </c>
     </row>
     <row r="147">
@@ -9398,7 +9398,7 @@
         <v>11972</v>
       </c>
       <c r="M147" t="n">
-        <v>12078.41647824832</v>
+        <v>11954.28966666667</v>
       </c>
     </row>
     <row r="148">
@@ -9459,7 +9459,7 @@
         <v>17024</v>
       </c>
       <c r="M148" t="n">
-        <v>17270.28155819869</v>
+        <v>17446.61683333334</v>
       </c>
     </row>
     <row r="149">
@@ -9520,7 +9520,7 @@
         <v>7398</v>
       </c>
       <c r="M149" t="n">
-        <v>6256.217930230087</v>
+        <v>6094.38</v>
       </c>
     </row>
     <row r="150">
@@ -9581,7 +9581,7 @@
         <v>17461</v>
       </c>
       <c r="M150" t="n">
-        <v>13366.8566738416</v>
+        <v>13856.84</v>
       </c>
     </row>
     <row r="151">
@@ -9642,7 +9642,7 @@
         <v>13731</v>
       </c>
       <c r="M151" t="n">
-        <v>11537.53268309531</v>
+        <v>10280.85166666667</v>
       </c>
     </row>
     <row r="152">
@@ -9703,7 +9703,7 @@
         <v>13555</v>
       </c>
       <c r="M152" t="n">
-        <v>12551.78301899436</v>
+        <v>12580.36333333333</v>
       </c>
     </row>
     <row r="153">
@@ -9764,7 +9764,7 @@
         <v>4804</v>
       </c>
       <c r="M153" t="n">
-        <v>4728.839897669612</v>
+        <v>4722.99</v>
       </c>
     </row>
     <row r="154">
@@ -9825,7 +9825,7 @@
         <v>16289</v>
       </c>
       <c r="M154" t="n">
-        <v>14164.67085740748</v>
+        <v>13198.19066666667</v>
       </c>
     </row>
     <row r="155">
@@ -9886,7 +9886,7 @@
         <v>7520</v>
       </c>
       <c r="M155" t="n">
-        <v>6806.495282818819</v>
+        <v>6822.95</v>
       </c>
     </row>
     <row r="156">
@@ -9947,7 +9947,7 @@
         <v>7503</v>
       </c>
       <c r="M156" t="n">
-        <v>7029.40484677876</v>
+        <v>7119.21</v>
       </c>
     </row>
     <row r="157">
@@ -10008,7 +10008,7 @@
         <v>8601</v>
       </c>
       <c r="M157" t="n">
-        <v>8037.417429015006</v>
+        <v>8085.610166666667</v>
       </c>
     </row>
     <row r="158">
@@ -10069,7 +10069,7 @@
         <v>7064</v>
       </c>
       <c r="M158" t="n">
-        <v>8671.37723459806</v>
+        <v>8813.780000000001</v>
       </c>
     </row>
     <row r="159">
@@ -10130,7 +10130,7 @@
         <v>5192</v>
       </c>
       <c r="M159" t="n">
-        <v>5667.510654827743</v>
+        <v>5624.46</v>
       </c>
     </row>
     <row r="160">
@@ -10191,7 +10191,7 @@
         <v>9158</v>
       </c>
       <c r="M160" t="n">
-        <v>8297.856815032106</v>
+        <v>8465.360000000001</v>
       </c>
     </row>
     <row r="161">
@@ -10252,7 +10252,7 @@
         <v>24318</v>
       </c>
       <c r="M161" t="n">
-        <v>16401.1109717099</v>
+        <v>15996.23083333333</v>
       </c>
     </row>
     <row r="162">
@@ -10313,7 +10313,7 @@
         <v>7038</v>
       </c>
       <c r="M162" t="n">
-        <v>7657.750824842352</v>
+        <v>7496.675</v>
       </c>
     </row>
     <row r="163">
@@ -10374,7 +10374,7 @@
         <v>7303</v>
       </c>
       <c r="M163" t="n">
-        <v>5135.83326589117</v>
+        <v>4746.438333333334</v>
       </c>
     </row>
     <row r="164">
@@ -10435,7 +10435,7 @@
         <v>8021</v>
       </c>
       <c r="M164" t="n">
-        <v>7104.547398243769</v>
+        <v>6786.53</v>
       </c>
     </row>
     <row r="165">
@@ -10496,7 +10496,7 @@
         <v>14323</v>
       </c>
       <c r="M165" t="n">
-        <v>14184.39248870088</v>
+        <v>14320.06</v>
       </c>
     </row>
     <row r="166">
@@ -10557,7 +10557,7 @@
         <v>10203</v>
       </c>
       <c r="M166" t="n">
-        <v>10471.65000778565</v>
+        <v>10321.1</v>
       </c>
     </row>
     <row r="167">
@@ -10618,7 +10618,7 @@
         <v>7408</v>
       </c>
       <c r="M167" t="n">
-        <v>7296.968352145891</v>
+        <v>6866.919166666667</v>
       </c>
     </row>
     <row r="168">
@@ -10679,7 +10679,7 @@
         <v>2227</v>
       </c>
       <c r="M168" t="n">
-        <v>2535.320905486019</v>
+        <v>2414.78</v>
       </c>
     </row>
     <row r="169">
@@ -10740,7 +10740,7 @@
         <v>16108</v>
       </c>
       <c r="M169" t="n">
-        <v>11536.08306707643</v>
+        <v>13897.44</v>
       </c>
     </row>
     <row r="170">
@@ -10801,7 +10801,7 @@
         <v>10262</v>
       </c>
       <c r="M170" t="n">
-        <v>10299.27121780411</v>
+        <v>10254.12</v>
       </c>
     </row>
     <row r="171">
@@ -10862,7 +10862,7 @@
         <v>14714</v>
       </c>
       <c r="M171" t="n">
-        <v>12505.12068176581</v>
+        <v>11200.364</v>
       </c>
     </row>
     <row r="172">
@@ -10923,7 +10923,7 @@
         <v>10262</v>
       </c>
       <c r="M172" t="n">
-        <v>12712.71501434803</v>
+        <v>12639.5</v>
       </c>
     </row>
     <row r="173">
@@ -10984,7 +10984,7 @@
         <v>7640</v>
       </c>
       <c r="M173" t="n">
-        <v>7023.273410247334</v>
+        <v>7074.28</v>
       </c>
     </row>
     <row r="174">
@@ -11045,7 +11045,7 @@
         <v>8610</v>
       </c>
       <c r="M174" t="n">
-        <v>8948.542192035935</v>
+        <v>8922.120000000001</v>
       </c>
     </row>
     <row r="175">
@@ -11106,7 +11106,7 @@
         <v>12767</v>
       </c>
       <c r="M175" t="n">
-        <v>8860.368344541497</v>
+        <v>7628.601333333334</v>
       </c>
     </row>
     <row r="176">
@@ -11167,7 +11167,7 @@
         <v>6093</v>
       </c>
       <c r="M176" t="n">
-        <v>6484.882571451008</v>
+        <v>6250.67</v>
       </c>
     </row>
     <row r="177">
@@ -11228,7 +11228,7 @@
         <v>6442</v>
       </c>
       <c r="M177" t="n">
-        <v>6367.680294758756</v>
+        <v>6366.87</v>
       </c>
     </row>
     <row r="178">
@@ -11289,7 +11289,7 @@
         <v>4030</v>
       </c>
       <c r="M178" t="n">
-        <v>6030.846021832422</v>
+        <v>5829.695857142858</v>
       </c>
     </row>
     <row r="179">
@@ -11350,7 +11350,7 @@
         <v>7408</v>
       </c>
       <c r="M179" t="n">
-        <v>10547.16380576331</v>
+        <v>9811.181333333334</v>
       </c>
     </row>
     <row r="180">
@@ -11411,7 +11411,7 @@
         <v>10696</v>
       </c>
       <c r="M180" t="n">
-        <v>10116.6421066931</v>
+        <v>10059.43</v>
       </c>
     </row>
     <row r="181">
@@ -11472,7 +11472,7 @@
         <v>6982</v>
       </c>
       <c r="M181" t="n">
-        <v>4968.981811079002</v>
+        <v>5123.186666666666</v>
       </c>
     </row>
     <row r="182">
@@ -11533,7 +11533,7 @@
         <v>2754</v>
       </c>
       <c r="M182" t="n">
-        <v>2973.242823367882</v>
+        <v>3171.17</v>
       </c>
     </row>
     <row r="183">
@@ -11594,7 +11594,7 @@
         <v>23677</v>
       </c>
       <c r="M183" t="n">
-        <v>16553.8372194229</v>
+        <v>15957.68</v>
       </c>
     </row>
     <row r="184">
@@ -11655,7 +11655,7 @@
         <v>13227</v>
       </c>
       <c r="M184" t="n">
-        <v>14540.9820784709</v>
+        <v>13441.53</v>
       </c>
     </row>
     <row r="185">
@@ -11716,7 +11716,7 @@
         <v>2754</v>
       </c>
       <c r="M185" t="n">
-        <v>3021.397589786382</v>
+        <v>3144.62</v>
       </c>
     </row>
     <row r="186">
@@ -11777,7 +11777,7 @@
         <v>6758</v>
       </c>
       <c r="M186" t="n">
-        <v>7088.788450737685</v>
+        <v>6937.18</v>
       </c>
     </row>
     <row r="187">
@@ -11838,7 +11838,7 @@
         <v>6934</v>
       </c>
       <c r="M187" t="n">
-        <v>6420.059077695754</v>
+        <v>6525.19</v>
       </c>
     </row>
     <row r="188">
@@ -11899,7 +11899,7 @@
         <v>18799</v>
       </c>
       <c r="M188" t="n">
-        <v>17867.87106036527</v>
+        <v>18742.105</v>
       </c>
     </row>
     <row r="189">
@@ -11960,7 +11960,7 @@
         <v>5678</v>
       </c>
       <c r="M189" t="n">
-        <v>3836.053833710596</v>
+        <v>2938.77</v>
       </c>
     </row>
     <row r="190">
@@ -12021,7 +12021,7 @@
         <v>27992</v>
       </c>
       <c r="M190" t="n">
-        <v>27236.60811718378</v>
+        <v>27871.32</v>
       </c>
     </row>
     <row r="191">
@@ -12082,7 +12082,7 @@
         <v>4544</v>
       </c>
       <c r="M191" t="n">
-        <v>5344.612666690196</v>
+        <v>5002.869999999999</v>
       </c>
     </row>
     <row r="192">
@@ -12143,7 +12143,7 @@
         <v>7757</v>
       </c>
       <c r="M192" t="n">
-        <v>11566.56944587572</v>
+        <v>11484.7519047619</v>
       </c>
     </row>
     <row r="193">
@@ -12204,7 +12204,7 @@
         <v>6373</v>
       </c>
       <c r="M193" t="n">
-        <v>6037.233779053775</v>
+        <v>5889.13</v>
       </c>
     </row>
     <row r="194">
@@ -12265,7 +12265,7 @@
         <v>13376</v>
       </c>
       <c r="M194" t="n">
-        <v>12650.25401824632</v>
+        <v>12653.68416666667</v>
       </c>
     </row>
     <row r="195">
@@ -12326,7 +12326,7 @@
         <v>5644</v>
       </c>
       <c r="M195" t="n">
-        <v>5158.706102265412</v>
+        <v>5425.79</v>
       </c>
     </row>
     <row r="196">
@@ -12387,7 +12387,7 @@
         <v>13067</v>
       </c>
       <c r="M196" t="n">
-        <v>12228.66348927779</v>
+        <v>12492.43833333334</v>
       </c>
     </row>
     <row r="197">
@@ -12448,7 +12448,7 @@
         <v>6513</v>
       </c>
       <c r="M197" t="n">
-        <v>7015.786951312838</v>
+        <v>6615.77</v>
       </c>
     </row>
     <row r="198">
@@ -12509,7 +12509,7 @@
         <v>4392</v>
       </c>
       <c r="M198" t="n">
-        <v>2908.579698072781</v>
+        <v>2882.67</v>
       </c>
     </row>
     <row r="199">
@@ -12570,7 +12570,7 @@
         <v>4778</v>
       </c>
       <c r="M199" t="n">
-        <v>4906.453619088987</v>
+        <v>4705.4</v>
       </c>
     </row>
     <row r="200">
@@ -12631,7 +12631,7 @@
         <v>10844</v>
       </c>
       <c r="M200" t="n">
-        <v>11299.90715254638</v>
+        <v>11077.1</v>
       </c>
     </row>
     <row r="201">
@@ -12692,7 +12692,7 @@
         <v>12723</v>
       </c>
       <c r="M201" t="n">
-        <v>12337.08714428838</v>
+        <v>12289.4</v>
       </c>
     </row>
     <row r="202">
@@ -12753,7 +12753,7 @@
         <v>11134</v>
       </c>
       <c r="M202" t="n">
-        <v>12563.41713945512</v>
+        <v>13220.97433333334</v>
       </c>
     </row>
     <row r="203">
@@ -12814,7 +12814,7 @@
         <v>7229</v>
       </c>
       <c r="M203" t="n">
-        <v>5976.834854584702</v>
+        <v>6114.01</v>
       </c>
     </row>
     <row r="204">
@@ -12875,7 +12875,7 @@
         <v>10262</v>
       </c>
       <c r="M204" t="n">
-        <v>12314.82268922494</v>
+        <v>13664.15</v>
       </c>
     </row>
     <row r="205">
@@ -12936,7 +12936,7 @@
         <v>4778</v>
       </c>
       <c r="M205" t="n">
-        <v>5110.875502447487</v>
+        <v>5275.115714285714</v>
       </c>
     </row>
     <row r="206">
@@ -12997,7 +12997,7 @@
         <v>8033</v>
       </c>
       <c r="M206" t="n">
-        <v>5820.356064962883</v>
+        <v>6110.718952380952</v>
       </c>
     </row>
     <row r="207">
@@ -13058,7 +13058,7 @@
         <v>8425</v>
       </c>
       <c r="M207" t="n">
-        <v>7228.525410370813</v>
+        <v>7222.72</v>
       </c>
     </row>
     <row r="208">
@@ -13119,7 +13119,7 @@
         <v>10919</v>
       </c>
       <c r="M208" t="n">
-        <v>12498.36666358901</v>
+        <v>12168.2835</v>
       </c>
     </row>
     <row r="209">
@@ -13180,7 +13180,7 @@
         <v>15411</v>
       </c>
       <c r="M209" t="n">
-        <v>15551.53920103747</v>
+        <v>15484.13</v>
       </c>
     </row>
     <row r="210">
@@ -13241,7 +13241,7 @@
         <v>10975</v>
       </c>
       <c r="M210" t="n">
-        <v>10411.93735353444</v>
+        <v>10030.17</v>
       </c>
     </row>
     <row r="211">
@@ -13302,7 +13302,7 @@
         <v>6535</v>
       </c>
       <c r="M211" t="n">
-        <v>10400.26180057037</v>
+        <v>11811.82</v>
       </c>
     </row>
     <row r="212">
@@ -13363,7 +13363,7 @@
         <v>8355</v>
       </c>
       <c r="M212" t="n">
-        <v>8179.628665253793</v>
+        <v>6406.614666666668</v>
       </c>
     </row>
     <row r="213">
@@ -13424,7 +13424,7 @@
         <v>3543</v>
       </c>
       <c r="M213" t="n">
-        <v>3576.293622853645</v>
+        <v>3571.014428571428</v>
       </c>
     </row>
     <row r="214">
@@ -13485,7 +13485,7 @@
         <v>12102</v>
       </c>
       <c r="M214" t="n">
-        <v>12608.44652145292</v>
+        <v>12197.095</v>
       </c>
     </row>
     <row r="215">
@@ -13546,7 +13546,7 @@
         <v>9314</v>
       </c>
       <c r="M215" t="n">
-        <v>11364.57839402699</v>
+        <v>11279.77966666667</v>
       </c>
     </row>
     <row r="216">
@@ -13607,7 +13607,7 @@
         <v>7503</v>
       </c>
       <c r="M216" t="n">
-        <v>7324.803257233891</v>
+        <v>7299.1</v>
       </c>
     </row>
     <row r="217">
@@ -13668,7 +13668,7 @@
         <v>9748</v>
       </c>
       <c r="M217" t="n">
-        <v>11199.46836372857</v>
+        <v>10960.29</v>
       </c>
     </row>
     <row r="218">
@@ -13729,7 +13729,7 @@
         <v>4804</v>
       </c>
       <c r="M218" t="n">
-        <v>4814.617408820574</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="219">
@@ -13790,7 +13790,7 @@
         <v>8586</v>
       </c>
       <c r="M219" t="n">
-        <v>12948.72133111971</v>
+        <v>13148.6255</v>
       </c>
     </row>
     <row r="220">
@@ -13851,7 +13851,7 @@
         <v>13882</v>
       </c>
       <c r="M220" t="n">
-        <v>13645.31059645426</v>
+        <v>13364.02916666667</v>
       </c>
     </row>
     <row r="221">
@@ -13912,7 +13912,7 @@
         <v>7229</v>
       </c>
       <c r="M221" t="n">
-        <v>4519.392290059242</v>
+        <v>4178.375</v>
       </c>
     </row>
     <row r="222">
@@ -13973,7 +13973,7 @@
         <v>2575</v>
       </c>
       <c r="M222" t="n">
-        <v>2935.823557144198</v>
+        <v>2862.16</v>
       </c>
     </row>
     <row r="223">
@@ -14034,7 +14034,7 @@
         <v>3943</v>
       </c>
       <c r="M223" t="n">
-        <v>4089.811033070158</v>
+        <v>4030.26</v>
       </c>
     </row>
     <row r="224">
@@ -14095,7 +14095,7 @@
         <v>4760</v>
       </c>
       <c r="M224" t="n">
-        <v>5357.44317714101</v>
+        <v>5278.93</v>
       </c>
     </row>
     <row r="225">
@@ -14156,7 +14156,7 @@
         <v>8824</v>
       </c>
       <c r="M225" t="n">
-        <v>12361.77817856313</v>
+        <v>12804.08833333333</v>
       </c>
     </row>
     <row r="226">
@@ -14217,7 +14217,7 @@
         <v>6902</v>
       </c>
       <c r="M226" t="n">
-        <v>7348.51367306593</v>
+        <v>7706.88</v>
       </c>
     </row>
     <row r="227">
@@ -14278,7 +14278,7 @@
         <v>6151</v>
       </c>
       <c r="M227" t="n">
-        <v>6639.091119806987</v>
+        <v>6874.61</v>
       </c>
     </row>
     <row r="228">
@@ -14339,7 +14339,7 @@
         <v>12324</v>
       </c>
       <c r="M228" t="n">
-        <v>12158.27178446349</v>
+        <v>12154.79</v>
       </c>
     </row>
     <row r="229">
@@ -14400,7 +14400,7 @@
         <v>11087</v>
       </c>
       <c r="M229" t="n">
-        <v>9994.806682771325</v>
+        <v>12545.23642857143</v>
       </c>
     </row>
     <row r="230">
@@ -14461,7 +14461,7 @@
         <v>5964</v>
       </c>
       <c r="M230" t="n">
-        <v>6217.910890441728</v>
+        <v>6064.0325</v>
       </c>
     </row>
     <row r="231">
@@ -14522,7 +14522,7 @@
         <v>14151</v>
       </c>
       <c r="M231" t="n">
-        <v>10945.84555715663</v>
+        <v>11107.28333333333</v>
       </c>
     </row>
     <row r="232">
@@ -14583,7 +14583,7 @@
         <v>11467</v>
       </c>
       <c r="M232" t="n">
-        <v>10993.63337262975</v>
+        <v>10334.987</v>
       </c>
     </row>
     <row r="233">
@@ -14644,7 +14644,7 @@
         <v>3873</v>
       </c>
       <c r="M233" t="n">
-        <v>3874.741679821379</v>
+        <v>3883.105333333333</v>
       </c>
     </row>
     <row r="234">
@@ -14705,7 +14705,7 @@
         <v>13542</v>
       </c>
       <c r="M234" t="n">
-        <v>10098.5738109199</v>
+        <v>11736.72</v>
       </c>
     </row>
     <row r="235">
@@ -14766,7 +14766,7 @@
         <v>10844</v>
       </c>
       <c r="M235" t="n">
-        <v>12545.09416147584</v>
+        <v>13913.18666666666</v>
       </c>
     </row>
     <row r="236">
@@ -14827,7 +14827,7 @@
         <v>6144</v>
       </c>
       <c r="M236" t="n">
-        <v>6703.32486788284</v>
+        <v>6706.410666666668</v>
       </c>
     </row>
     <row r="237">
@@ -14888,7 +14888,7 @@
         <v>10262</v>
       </c>
       <c r="M237" t="n">
-        <v>13120.56133599464</v>
+        <v>13325.809</v>
       </c>
     </row>
     <row r="238">
@@ -14949,7 +14949,7 @@
         <v>3383</v>
       </c>
       <c r="M238" t="n">
-        <v>4133.722921553549</v>
+        <v>4213.673333333333</v>
       </c>
     </row>
     <row r="239">
@@ -15010,7 +15010,7 @@
         <v>10413</v>
       </c>
       <c r="M239" t="n">
-        <v>10294.39659634886</v>
+        <v>10348.03</v>
       </c>
     </row>
     <row r="240">
@@ -15071,7 +15071,7 @@
         <v>13994</v>
       </c>
       <c r="M240" t="n">
-        <v>12986.14802346373</v>
+        <v>13315.521</v>
       </c>
     </row>
     <row r="241">
@@ -15132,7 +15132,7 @@
         <v>13143</v>
       </c>
       <c r="M241" t="n">
-        <v>12590.52440591107</v>
+        <v>12812.36</v>
       </c>
     </row>
     <row r="242">
@@ -15193,7 +15193,7 @@
         <v>13069</v>
       </c>
       <c r="M242" t="n">
-        <v>11723.19113588469</v>
+        <v>12435.53</v>
       </c>
     </row>
     <row r="243">
@@ -15254,7 +15254,7 @@
         <v>15129</v>
       </c>
       <c r="M243" t="n">
-        <v>15228.69087898032</v>
+        <v>15380.0275</v>
       </c>
     </row>
     <row r="244">
@@ -15315,7 +15315,7 @@
         <v>3898</v>
       </c>
       <c r="M244" t="n">
-        <v>3928.077728860303</v>
+        <v>3724.07</v>
       </c>
     </row>
     <row r="245">
@@ -15376,7 +15376,7 @@
         <v>13941</v>
       </c>
       <c r="M245" t="n">
-        <v>12584.68698611219</v>
+        <v>12622.10116666667</v>
       </c>
     </row>
     <row r="246">
@@ -15437,7 +15437,7 @@
         <v>6383</v>
       </c>
       <c r="M246" t="n">
-        <v>6801.093771086146</v>
+        <v>7053.91</v>
       </c>
     </row>
     <row r="247">
@@ -15498,7 +15498,7 @@
         <v>10406</v>
       </c>
       <c r="M247" t="n">
-        <v>12274.05795887776</v>
+        <v>12571.35666666667</v>
       </c>
     </row>
     <row r="248">
@@ -15559,7 +15559,7 @@
         <v>5883</v>
       </c>
       <c r="M248" t="n">
-        <v>6799.510840306472</v>
+        <v>6506.82</v>
       </c>
     </row>
     <row r="249">
@@ -15620,7 +15620,7 @@
         <v>6838</v>
       </c>
       <c r="M249" t="n">
-        <v>6755.184923817481</v>
+        <v>6913.73</v>
       </c>
     </row>
     <row r="250">
@@ -15681,7 +15681,7 @@
         <v>14781</v>
       </c>
       <c r="M250" t="n">
-        <v>12319.07762450993</v>
+        <v>12056.9895</v>
       </c>
     </row>
     <row r="251">
@@ -15742,7 +15742,7 @@
         <v>10577</v>
       </c>
       <c r="M251" t="n">
-        <v>12167.64742419039</v>
+        <v>11961.554</v>
       </c>
     </row>
     <row r="252">
@@ -15803,7 +15803,7 @@
         <v>9646</v>
       </c>
       <c r="M252" t="n">
-        <v>11250.70131818492</v>
+        <v>11508.08</v>
       </c>
     </row>
     <row r="253">
@@ -15864,7 +15864,7 @@
         <v>6216</v>
       </c>
       <c r="M253" t="n">
-        <v>6631.752365758402</v>
+        <v>6630.184761904762</v>
       </c>
     </row>
     <row r="254">
@@ -15925,7 +15925,7 @@
         <v>9564</v>
       </c>
       <c r="M254" t="n">
-        <v>7493.10972509753</v>
+        <v>8476.620000000001</v>
       </c>
     </row>
     <row r="255">
@@ -15986,7 +15986,7 @@
         <v>14781</v>
       </c>
       <c r="M255" t="n">
-        <v>11125.12394022021</v>
+        <v>10619.31866666667</v>
       </c>
     </row>
     <row r="256">
@@ -16047,7 +16047,7 @@
         <v>7229</v>
       </c>
       <c r="M256" t="n">
-        <v>6019.818496118938</v>
+        <v>6445.8875</v>
       </c>
     </row>
     <row r="257">
@@ -16108,7 +16108,7 @@
         <v>4148</v>
       </c>
       <c r="M257" t="n">
-        <v>4831.370658892714</v>
+        <v>4625.264</v>
       </c>
     </row>
     <row r="258">
@@ -16169,7 +16169,7 @@
         <v>7268</v>
       </c>
       <c r="M258" t="n">
-        <v>8881.770240480819</v>
+        <v>8394.67</v>
       </c>
     </row>
     <row r="259">
@@ -16230,7 +16230,7 @@
         <v>6245</v>
       </c>
       <c r="M259" t="n">
-        <v>5643.004078420643</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="260">
@@ -16291,7 +16291,7 @@
         <v>13376</v>
       </c>
       <c r="M260" t="n">
-        <v>12526.71557738363</v>
+        <v>12273.155</v>
       </c>
     </row>
     <row r="261">
@@ -16352,7 +16352,7 @@
         <v>4483</v>
       </c>
       <c r="M261" t="n">
-        <v>4556.824388363023</v>
+        <v>4531.209</v>
       </c>
     </row>
     <row r="262">
@@ -16413,7 +16413,7 @@
         <v>11627</v>
       </c>
       <c r="M262" t="n">
-        <v>10839.47200891286</v>
+        <v>10448.95</v>
       </c>
     </row>
     <row r="263">
@@ -16474,7 +16474,7 @@
         <v>13310</v>
       </c>
       <c r="M263" t="n">
-        <v>12384.67583622621</v>
+        <v>12573.89</v>
       </c>
     </row>
     <row r="264">
@@ -16535,7 +16535,7 @@
         <v>7754</v>
       </c>
       <c r="M264" t="n">
-        <v>7885.041401383979</v>
+        <v>8274.380833333335</v>
       </c>
     </row>
     <row r="265">
@@ -16596,7 +16596,7 @@
         <v>2754</v>
       </c>
       <c r="M265" t="n">
-        <v>2811.414968830364</v>
+        <v>3002.03</v>
       </c>
     </row>
     <row r="266">
@@ -16657,7 +16657,7 @@
         <v>10231</v>
       </c>
       <c r="M266" t="n">
-        <v>10446.96617032535</v>
+        <v>10323.94</v>
       </c>
     </row>
     <row r="267">
@@ -16718,7 +16718,7 @@
         <v>10368</v>
       </c>
       <c r="M267" t="n">
-        <v>11477.99905061368</v>
+        <v>10643.2775</v>
       </c>
     </row>
     <row r="268">
@@ -16779,7 +16779,7 @@
         <v>11447</v>
       </c>
       <c r="M268" t="n">
-        <v>11104.89769880408</v>
+        <v>10811.24</v>
       </c>
     </row>
     <row r="269">
@@ -16840,7 +16840,7 @@
         <v>18799</v>
       </c>
       <c r="M269" t="n">
-        <v>17391.89532656241</v>
+        <v>18178.175</v>
       </c>
     </row>
     <row r="270">
@@ -16901,7 +16901,7 @@
         <v>4462</v>
       </c>
       <c r="M270" t="n">
-        <v>4828.85611214087</v>
+        <v>4671.74</v>
       </c>
     </row>
     <row r="271">
@@ -16962,7 +16962,7 @@
         <v>13067</v>
       </c>
       <c r="M271" t="n">
-        <v>12859.26534881701</v>
+        <v>13298.33</v>
       </c>
     </row>
     <row r="272">
@@ -17023,7 +17023,7 @@
         <v>12681</v>
       </c>
       <c r="M272" t="n">
-        <v>8652.973898190661</v>
+        <v>7952.933666666667</v>
       </c>
     </row>
     <row r="273">
@@ -17084,7 +17084,7 @@
         <v>3687</v>
       </c>
       <c r="M273" t="n">
-        <v>3721.899640104796</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="274">
@@ -17145,7 +17145,7 @@
         <v>6628</v>
       </c>
       <c r="M274" t="n">
-        <v>7447.78607172536</v>
+        <v>7352.69</v>
       </c>
     </row>
     <row r="275">
@@ -17206,7 +17206,7 @@
         <v>13832</v>
       </c>
       <c r="M275" t="n">
-        <v>11492.72164057566</v>
+        <v>11688.515</v>
       </c>
     </row>
     <row r="276">
@@ -17267,7 +17267,7 @@
         <v>6860</v>
       </c>
       <c r="M276" t="n">
-        <v>7620.351682672496</v>
+        <v>7333.544</v>
       </c>
     </row>
     <row r="277">
@@ -17328,7 +17328,7 @@
         <v>10676</v>
       </c>
       <c r="M277" t="n">
-        <v>10482.87073035536</v>
+        <v>10298.71</v>
       </c>
     </row>
     <row r="278">
@@ -17389,7 +17389,7 @@
         <v>14714</v>
       </c>
       <c r="M278" t="n">
-        <v>12610.86837054676</v>
+        <v>12193.83766666667</v>
       </c>
     </row>
     <row r="279">
@@ -17450,7 +17450,7 @@
         <v>10262</v>
       </c>
       <c r="M279" t="n">
-        <v>10817.17847428815</v>
+        <v>10733.298</v>
       </c>
     </row>
     <row r="280">
@@ -17511,7 +17511,7 @@
         <v>2754</v>
       </c>
       <c r="M280" t="n">
-        <v>3021.476195357322</v>
+        <v>2882.69</v>
       </c>
     </row>
     <row r="281">
@@ -17572,7 +17572,7 @@
         <v>6785</v>
       </c>
       <c r="M281" t="n">
-        <v>9931.716462018867</v>
+        <v>9514.625</v>
       </c>
     </row>
     <row r="282">
@@ -17633,7 +17633,7 @@
         <v>14067</v>
       </c>
       <c r="M282" t="n">
-        <v>12408.32330966421</v>
+        <v>12726.09</v>
       </c>
     </row>
     <row r="283">
@@ -17694,7 +17694,7 @@
         <v>15318</v>
       </c>
       <c r="M283" t="n">
-        <v>15745.20224576166</v>
+        <v>15917.6</v>
       </c>
     </row>
     <row r="284">
@@ -17755,7 +17755,7 @@
         <v>14053</v>
       </c>
       <c r="M284" t="n">
-        <v>14897.99497719445</v>
+        <v>15080.10866666667</v>
       </c>
     </row>
     <row r="285">
@@ -17816,7 +17816,7 @@
         <v>8040</v>
       </c>
       <c r="M285" t="n">
-        <v>5896.574586720462</v>
+        <v>5250.15</v>
       </c>
     </row>
     <row r="286">
@@ -17877,7 +17877,7 @@
         <v>12723</v>
       </c>
       <c r="M286" t="n">
-        <v>12284.18935615176</v>
+        <v>11844.74</v>
       </c>
     </row>
     <row r="287">
@@ -17938,7 +17938,7 @@
         <v>10262</v>
       </c>
       <c r="M287" t="n">
-        <v>10329.21414526315</v>
+        <v>10407.08</v>
       </c>
     </row>
     <row r="288">
@@ -17999,7 +17999,7 @@
         <v>6151</v>
       </c>
       <c r="M288" t="n">
-        <v>6188.323162767781</v>
+        <v>6220.21</v>
       </c>
     </row>
     <row r="289">
@@ -18060,7 +18060,7 @@
         <v>5409</v>
       </c>
       <c r="M289" t="n">
-        <v>5743.9342593457</v>
+        <v>5725.43</v>
       </c>
     </row>
     <row r="290">
@@ -18121,7 +18121,7 @@
         <v>9345</v>
       </c>
       <c r="M290" t="n">
-        <v>8928.325341884198</v>
+        <v>8994.08</v>
       </c>
     </row>
     <row r="291">
@@ -18182,7 +18182,7 @@
         <v>12646</v>
       </c>
       <c r="M291" t="n">
-        <v>12650.24179316367</v>
+        <v>12752.23</v>
       </c>
     </row>
     <row r="292">
@@ -18243,7 +18243,7 @@
         <v>11150</v>
       </c>
       <c r="M292" t="n">
-        <v>13750.35265590313</v>
+        <v>14224.84638095238</v>
       </c>
     </row>
     <row r="293">
@@ -18304,7 +18304,7 @@
         <v>4784</v>
       </c>
       <c r="M293" t="n">
-        <v>6024.439261688649</v>
+        <v>6194.75</v>
       </c>
     </row>
     <row r="294">
@@ -18365,7 +18365,7 @@
         <v>12242</v>
       </c>
       <c r="M294" t="n">
-        <v>9254.507896865001</v>
+        <v>7894.861904761905</v>
       </c>
     </row>
     <row r="295">
@@ -18426,7 +18426,7 @@
         <v>11323</v>
       </c>
       <c r="M295" t="n">
-        <v>6676.268982164936</v>
+        <v>6214.24</v>
       </c>
     </row>
     <row r="296">
@@ -18487,7 +18487,7 @@
         <v>4409</v>
       </c>
       <c r="M296" t="n">
-        <v>4415.355501254624</v>
+        <v>4665.5</v>
       </c>
     </row>
     <row r="297">
@@ -18548,7 +18548,7 @@
         <v>16736</v>
       </c>
       <c r="M297" t="n">
-        <v>16668.73250885209</v>
+        <v>16609.37</v>
       </c>
     </row>
     <row r="298">
@@ -18609,7 +18609,7 @@
         <v>3100</v>
       </c>
       <c r="M298" t="n">
-        <v>3160.76668124972</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="299">
@@ -18670,7 +18670,7 @@
         <v>13029</v>
       </c>
       <c r="M299" t="n">
-        <v>14168.0676898644</v>
+        <v>14454.5</v>
       </c>
     </row>
     <row r="300">
@@ -18731,7 +18731,7 @@
         <v>4804</v>
       </c>
       <c r="M300" t="n">
-        <v>5105.903198889004</v>
+        <v>5266.28</v>
       </c>
     </row>
     <row r="301">
@@ -18792,7 +18792,7 @@
         <v>9555</v>
       </c>
       <c r="M301" t="n">
-        <v>9117.769759432751</v>
+        <v>9299.4</v>
       </c>
     </row>
     <row r="302">
@@ -18853,7 +18853,7 @@
         <v>10262</v>
       </c>
       <c r="M302" t="n">
-        <v>10320.47575081374</v>
+        <v>10488.17</v>
       </c>
     </row>
     <row r="303">
@@ -18914,7 +18914,7 @@
         <v>5964</v>
       </c>
       <c r="M303" t="n">
-        <v>5542.870872634982</v>
+        <v>6239.516666666667</v>
       </c>
     </row>
     <row r="304">
@@ -18975,7 +18975,7 @@
         <v>6386</v>
       </c>
       <c r="M304" t="n">
-        <v>6272.955053622041</v>
+        <v>6272.39</v>
       </c>
     </row>
     <row r="305">
@@ -19036,7 +19036,7 @@
         <v>6377</v>
       </c>
       <c r="M305" t="n">
-        <v>6804.725479431885</v>
+        <v>6763.71</v>
       </c>
     </row>
     <row r="306">
@@ -19097,7 +19097,7 @@
         <v>3807</v>
       </c>
       <c r="M306" t="n">
-        <v>3890.246301200528</v>
+        <v>3982.236666666666</v>
       </c>
     </row>
     <row r="307">
@@ -19158,7 +19158,7 @@
         <v>13377</v>
       </c>
       <c r="M307" t="n">
-        <v>12732.3248452074</v>
+        <v>13211.43</v>
       </c>
     </row>
     <row r="308">
@@ -19219,7 +19219,7 @@
         <v>3841</v>
       </c>
       <c r="M308" t="n">
-        <v>3955.361452249605</v>
+        <v>3882.327333333333</v>
       </c>
     </row>
     <row r="309">
@@ -19280,7 +19280,7 @@
         <v>6528</v>
       </c>
       <c r="M309" t="n">
-        <v>6398.49807524327</v>
+        <v>6509.17</v>
       </c>
     </row>
     <row r="310">
@@ -19341,7 +19341,7 @@
         <v>3100</v>
       </c>
       <c r="M310" t="n">
-        <v>3187.292919055757</v>
+        <v>3209.54</v>
       </c>
     </row>
     <row r="311">
@@ -19402,7 +19402,7 @@
         <v>3687</v>
       </c>
       <c r="M311" t="n">
-        <v>11637.84010971691</v>
+        <v>11748.91</v>
       </c>
     </row>
     <row r="312">
@@ -19463,7 +19463,7 @@
         <v>14815</v>
       </c>
       <c r="M312" t="n">
-        <v>14917.97246005898</v>
+        <v>14259.06566666667</v>
       </c>
     </row>
     <row r="313">
@@ -19524,7 +19524,7 @@
         <v>3943</v>
       </c>
       <c r="M313" t="n">
-        <v>4004.328960173685</v>
+        <v>4102.76</v>
       </c>
     </row>
     <row r="314">
@@ -19585,7 +19585,7 @@
         <v>14714</v>
       </c>
       <c r="M314" t="n">
-        <v>11603.51463097853</v>
+        <v>11401.999</v>
       </c>
     </row>
     <row r="315">
@@ -19646,7 +19646,7 @@
         <v>4859</v>
       </c>
       <c r="M315" t="n">
-        <v>5328.356213562244</v>
+        <v>5167.26</v>
       </c>
     </row>
     <row r="316">
@@ -19707,7 +19707,7 @@
         <v>10844</v>
       </c>
       <c r="M316" t="n">
-        <v>12805.5181914481</v>
+        <v>12941.6515</v>
       </c>
     </row>
     <row r="317">
@@ -19768,7 +19768,7 @@
         <v>4410</v>
       </c>
       <c r="M317" t="n">
-        <v>6416.951744175609</v>
+        <v>6165.512777777778</v>
       </c>
     </row>
     <row r="318">
@@ -19829,7 +19829,7 @@
         <v>2754</v>
       </c>
       <c r="M318" t="n">
-        <v>2911.171753576882</v>
+        <v>2854.49</v>
       </c>
     </row>
     <row r="319">
@@ -19890,7 +19890,7 @@
         <v>7229</v>
       </c>
       <c r="M319" t="n">
-        <v>5589.216721130547</v>
+        <v>4895.225</v>
       </c>
     </row>
     <row r="320">
@@ -19951,7 +19951,7 @@
         <v>5694</v>
       </c>
       <c r="M320" t="n">
-        <v>5470.25207213604</v>
+        <v>4843.946952380952</v>
       </c>
     </row>
     <row r="321">
@@ -20012,7 +20012,7 @@
         <v>9424</v>
       </c>
       <c r="M321" t="n">
-        <v>8193.474995460228</v>
+        <v>8244.870000000001</v>
       </c>
     </row>
     <row r="322">
@@ -20073,7 +20073,7 @@
         <v>10262</v>
       </c>
       <c r="M322" t="n">
-        <v>10419.83286570034</v>
+        <v>10347.14</v>
       </c>
     </row>
     <row r="323">
@@ -20134,7 +20134,7 @@
         <v>12199</v>
       </c>
       <c r="M323" t="n">
-        <v>12342.887410552</v>
+        <v>12654.64</v>
       </c>
     </row>
     <row r="324">
@@ -20195,7 +20195,7 @@
         <v>4668</v>
       </c>
       <c r="M324" t="n">
-        <v>4683.393349497628</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="325">
@@ -20256,7 +20256,7 @@
         <v>7832</v>
       </c>
       <c r="M325" t="n">
-        <v>21066.43535501546</v>
+        <v>31797.22</v>
       </c>
     </row>
     <row r="326">
@@ -20317,7 +20317,7 @@
         <v>4945</v>
       </c>
       <c r="M326" t="n">
-        <v>5164.028082079182</v>
+        <v>4959.578666666666</v>
       </c>
     </row>
     <row r="327">
@@ -20378,7 +20378,7 @@
         <v>11791</v>
       </c>
       <c r="M327" t="n">
-        <v>13858.66413692801</v>
+        <v>12971.4725</v>
       </c>
     </row>
     <row r="328">
@@ -20439,7 +20439,7 @@
         <v>3841</v>
       </c>
       <c r="M328" t="n">
-        <v>3948.11899602946</v>
+        <v>3880.937333333333</v>
       </c>
     </row>
     <row r="329">
@@ -20500,7 +20500,7 @@
         <v>4239</v>
       </c>
       <c r="M329" t="n">
-        <v>4257.522610908292</v>
+        <v>4260.67</v>
       </c>
     </row>
     <row r="330">
@@ -20561,7 +20561,7 @@
         <v>14815</v>
       </c>
       <c r="M330" t="n">
-        <v>21616.03908420615</v>
+        <v>14047.15</v>
       </c>
     </row>
     <row r="331">
@@ -20622,7 +20622,7 @@
         <v>13014</v>
       </c>
       <c r="M331" t="n">
-        <v>12917.9874304797</v>
+        <v>12494.634</v>
       </c>
     </row>
     <row r="332">
@@ -20683,7 +20683,7 @@
         <v>11789</v>
       </c>
       <c r="M332" t="n">
-        <v>10475.67650159162</v>
+        <v>10769.19</v>
       </c>
     </row>
     <row r="333">
@@ -20744,7 +20744,7 @@
         <v>10031</v>
       </c>
       <c r="M333" t="n">
-        <v>12883.2094664752</v>
+        <v>13358.86916666667</v>
       </c>
     </row>
     <row r="334">
@@ -20805,7 +20805,7 @@
         <v>13616</v>
       </c>
       <c r="M334" t="n">
-        <v>12645.68735151248</v>
+        <v>13171.29</v>
       </c>
     </row>
     <row r="335">
@@ -20866,7 +20866,7 @@
         <v>6838</v>
       </c>
       <c r="M335" t="n">
-        <v>9744.533884388828</v>
+        <v>8716.291666666664</v>
       </c>
     </row>
     <row r="336">
@@ -20927,7 +20927,7 @@
         <v>7229</v>
       </c>
       <c r="M336" t="n">
-        <v>5821.093718811531</v>
+        <v>5828.855166666667</v>
       </c>
     </row>
     <row r="337">
@@ -20988,7 +20988,7 @@
         <v>4990</v>
       </c>
       <c r="M337" t="n">
-        <v>4319.54597013104</v>
+        <v>4480.42</v>
       </c>
     </row>
     <row r="338">
@@ -21049,7 +21049,7 @@
         <v>5752</v>
       </c>
       <c r="M338" t="n">
-        <v>5912.390030702063</v>
+        <v>6327.87</v>
       </c>
     </row>
     <row r="339">
@@ -21110,7 +21110,7 @@
         <v>18191</v>
       </c>
       <c r="M339" t="n">
-        <v>17978.76702427618</v>
+        <v>16553.75</v>
       </c>
     </row>
     <row r="340">
@@ -21171,7 +21171,7 @@
         <v>10539</v>
       </c>
       <c r="M340" t="n">
-        <v>12025.18370797502</v>
+        <v>12527.99</v>
       </c>
     </row>
     <row r="341">
@@ -21232,7 +21232,7 @@
         <v>8327</v>
       </c>
       <c r="M341" t="n">
-        <v>10078.8728755617</v>
+        <v>10328.54</v>
       </c>
     </row>
     <row r="342">
@@ -21293,7 +21293,7 @@
         <v>10844</v>
       </c>
       <c r="M342" t="n">
-        <v>13065.32188349144</v>
+        <v>14034.21866666667</v>
       </c>
     </row>
     <row r="343">
@@ -21354,7 +21354,7 @@
         <v>3873</v>
       </c>
       <c r="M343" t="n">
-        <v>3877.061114807178</v>
+        <v>3866.695833333333</v>
       </c>
     </row>
     <row r="344">
@@ -21415,7 +21415,7 @@
         <v>13555</v>
       </c>
       <c r="M344" t="n">
-        <v>12880.13504129681</v>
+        <v>13131.137</v>
       </c>
     </row>
     <row r="345">
@@ -21476,7 +21476,7 @@
         <v>10844</v>
       </c>
       <c r="M345" t="n">
-        <v>11676.69296766458</v>
+        <v>11390.80366666667</v>
       </c>
     </row>
     <row r="346">
@@ -21537,7 +21537,7 @@
         <v>5403</v>
       </c>
       <c r="M346" t="n">
-        <v>5474.234399022301</v>
+        <v>5427.6</v>
       </c>
     </row>
     <row r="347">
@@ -21598,7 +21598,7 @@
         <v>4145</v>
       </c>
       <c r="M347" t="n">
-        <v>4295.091318136471</v>
+        <v>4196.43</v>
       </c>
     </row>
     <row r="348">
@@ -21659,7 +21659,7 @@
         <v>10577</v>
       </c>
       <c r="M348" t="n">
-        <v>11702.73420518857</v>
+        <v>11464.25233333333</v>
       </c>
     </row>
     <row r="349">
@@ -21720,7 +21720,7 @@
         <v>9925</v>
       </c>
       <c r="M349" t="n">
-        <v>11211.67394298564</v>
+        <v>11045.02</v>
       </c>
     </row>
     <row r="350">
@@ -21781,7 +21781,7 @@
         <v>2754</v>
       </c>
       <c r="M350" t="n">
-        <v>2917.651316642572</v>
+        <v>2770.38</v>
       </c>
     </row>
     <row r="351">
@@ -21842,7 +21842,7 @@
         <v>7662</v>
       </c>
       <c r="M351" t="n">
-        <v>7955.907483510224</v>
+        <v>7551.21</v>
       </c>
     </row>
     <row r="352">
@@ -21903,7 +21903,7 @@
         <v>22294</v>
       </c>
       <c r="M352" t="n">
-        <v>18682.60300681748</v>
+        <v>19252.88</v>
       </c>
     </row>
     <row r="353">
@@ -21964,7 +21964,7 @@
         <v>6144</v>
       </c>
       <c r="M353" t="n">
-        <v>7102.949585439183</v>
+        <v>6752.452500000001</v>
       </c>
     </row>
     <row r="354">
@@ -22025,7 +22025,7 @@
         <v>24210</v>
       </c>
       <c r="M354" t="n">
-        <v>20274.08110113949</v>
+        <v>20834.325</v>
       </c>
     </row>
     <row r="355">
@@ -22086,7 +22086,7 @@
         <v>12327</v>
       </c>
       <c r="M355" t="n">
-        <v>9119.427890599594</v>
+        <v>7993.64</v>
       </c>
     </row>
     <row r="356">
@@ -22147,7 +22147,7 @@
         <v>2437</v>
       </c>
       <c r="M356" t="n">
-        <v>2596.128035769579</v>
+        <v>2552.4</v>
       </c>
     </row>
     <row r="357">
@@ -22208,7 +22208,7 @@
         <v>2753</v>
       </c>
       <c r="M357" t="n">
-        <v>2249.55732053702</v>
+        <v>2610.047999999999</v>
       </c>
     </row>
     <row r="358">
@@ -22269,7 +22269,7 @@
         <v>14151</v>
       </c>
       <c r="M358" t="n">
-        <v>13473.83063506768</v>
+        <v>13748.17166666667</v>
       </c>
     </row>
     <row r="359">
@@ -22330,7 +22330,7 @@
         <v>11982</v>
       </c>
       <c r="M359" t="n">
-        <v>11920.41992262499</v>
+        <v>11982</v>
       </c>
     </row>
     <row r="360">
@@ -22391,7 +22391,7 @@
         <v>9413</v>
       </c>
       <c r="M360" t="n">
-        <v>9313.920881113827</v>
+        <v>8579.637500000001</v>
       </c>
     </row>
     <row r="361">
@@ -22452,7 +22452,7 @@
         <v>13022</v>
       </c>
       <c r="M361" t="n">
-        <v>12474.53091433667</v>
+        <v>12805.385</v>
       </c>
     </row>
     <row r="362">
@@ -22513,7 +22513,7 @@
         <v>3673</v>
       </c>
       <c r="M362" t="n">
-        <v>6395.039727659336</v>
+        <v>6738.21</v>
       </c>
     </row>
     <row r="363">
@@ -22574,7 +22574,7 @@
         <v>15764</v>
       </c>
       <c r="M363" t="n">
-        <v>15294.40811787095</v>
+        <v>13811.225</v>
       </c>
     </row>
     <row r="364">
@@ -22635,7 +22635,7 @@
         <v>12609</v>
       </c>
       <c r="M364" t="n">
-        <v>12208.60896580517</v>
+        <v>11963.721</v>
       </c>
     </row>
     <row r="365">
@@ -22696,7 +22696,7 @@
         <v>57209</v>
       </c>
       <c r="M365" t="n">
-        <v>11312.80360109687</v>
+        <v>11903.61</v>
       </c>
     </row>
     <row r="366">
@@ -22757,7 +22757,7 @@
         <v>5613</v>
       </c>
       <c r="M366" t="n">
-        <v>5343.110004022783</v>
+        <v>5369.73</v>
       </c>
     </row>
     <row r="367">
@@ -22818,7 +22818,7 @@
         <v>6630</v>
       </c>
       <c r="M367" t="n">
-        <v>9084.043609365883</v>
+        <v>10138.44</v>
       </c>
     </row>
     <row r="368">
@@ -22879,7 +22879,7 @@
         <v>5678</v>
       </c>
       <c r="M368" t="n">
-        <v>5321.013874174957</v>
+        <v>5423.005333333334</v>
       </c>
     </row>
     <row r="369">
@@ -22940,7 +22940,7 @@
         <v>7045</v>
       </c>
       <c r="M369" t="n">
-        <v>8741.236721970903</v>
+        <v>8380.749428571429</v>
       </c>
     </row>
     <row r="370">
@@ -23001,7 +23001,7 @@
         <v>4148</v>
       </c>
       <c r="M370" t="n">
-        <v>4736.404095599802</v>
+        <v>4531.93</v>
       </c>
     </row>
     <row r="371">
@@ -23062,7 +23062,7 @@
         <v>11003</v>
       </c>
       <c r="M371" t="n">
-        <v>11685.52651702847</v>
+        <v>11291.315</v>
       </c>
     </row>
     <row r="372">
@@ -23123,7 +23123,7 @@
         <v>7480</v>
       </c>
       <c r="M372" t="n">
-        <v>7532.639775378579</v>
+        <v>7628.86</v>
       </c>
     </row>
     <row r="373">
@@ -23184,7 +23184,7 @@
         <v>4804</v>
       </c>
       <c r="M373" t="n">
-        <v>4835.537071280099</v>
+        <v>4834.1</v>
       </c>
     </row>
     <row r="374">
@@ -23245,7 +23245,7 @@
         <v>4050</v>
       </c>
       <c r="M374" t="n">
-        <v>4665.584252571824</v>
+        <v>4730.973333333333</v>
       </c>
     </row>
     <row r="375">
@@ -23306,7 +23306,7 @@
         <v>6961</v>
       </c>
       <c r="M375" t="n">
-        <v>6845.688735070689</v>
+        <v>6927.77</v>
       </c>
     </row>
     <row r="376">
@@ -23367,7 +23367,7 @@
         <v>10262</v>
       </c>
       <c r="M376" t="n">
-        <v>11845.99697883225</v>
+        <v>12159.73466666667</v>
       </c>
     </row>
     <row r="377">
@@ -23428,7 +23428,7 @@
         <v>3383</v>
       </c>
       <c r="M377" t="n">
-        <v>4904.892225883231</v>
+        <v>5827.243333333334</v>
       </c>
     </row>
     <row r="378">
@@ -23489,7 +23489,7 @@
         <v>8119</v>
       </c>
       <c r="M378" t="n">
-        <v>9624.353952667539</v>
+        <v>9675.139999999999</v>
       </c>
     </row>
     <row r="379">
@@ -23550,7 +23550,7 @@
         <v>14714</v>
       </c>
       <c r="M379" t="n">
-        <v>11633.03794351064</v>
+        <v>11369.362</v>
       </c>
     </row>
     <row r="380">
@@ -23611,7 +23611,7 @@
         <v>13259</v>
       </c>
       <c r="M380" t="n">
-        <v>11307.55918673002</v>
+        <v>11707.9</v>
       </c>
     </row>
     <row r="381">
@@ -23672,7 +23672,7 @@
         <v>7222</v>
       </c>
       <c r="M381" t="n">
-        <v>7387.608233411776</v>
+        <v>7374.879333333333</v>
       </c>
     </row>
     <row r="382">
@@ -23733,7 +23733,7 @@
         <v>7353</v>
       </c>
       <c r="M382" t="n">
-        <v>8670.405874194861</v>
+        <v>8740.870000000001</v>
       </c>
     </row>
     <row r="383">
@@ -23794,7 +23794,7 @@
         <v>14178</v>
       </c>
       <c r="M383" t="n">
-        <v>11867.12862475859</v>
+        <v>12307.19466666667</v>
       </c>
     </row>
     <row r="384">
@@ -23855,7 +23855,7 @@
         <v>26890</v>
       </c>
       <c r="M384" t="n">
-        <v>24504.92136832698</v>
+        <v>24132.22</v>
       </c>
     </row>
     <row r="385">
@@ -23916,7 +23916,7 @@
         <v>3625</v>
       </c>
       <c r="M385" t="n">
-        <v>3109.766522659573</v>
+        <v>3108.17</v>
       </c>
     </row>
     <row r="386">
@@ -23977,7 +23977,7 @@
         <v>9001</v>
       </c>
       <c r="M386" t="n">
-        <v>9405.700283483708</v>
+        <v>9562.25</v>
       </c>
     </row>
     <row r="387">
@@ -24038,7 +24038,7 @@
         <v>4145</v>
       </c>
       <c r="M387" t="n">
-        <v>4242.973755300955</v>
+        <v>4151.11</v>
       </c>
     </row>
     <row r="388">
@@ -24099,7 +24099,7 @@
         <v>15544</v>
       </c>
       <c r="M388" t="n">
-        <v>15836.37821349701</v>
+        <v>15817.52166666667</v>
       </c>
     </row>
     <row r="389">
@@ -24160,7 +24160,7 @@
         <v>2017</v>
       </c>
       <c r="M389" t="n">
-        <v>2136.583342953439</v>
+        <v>1992.165</v>
       </c>
     </row>
     <row r="390">
@@ -24221,7 +24221,7 @@
         <v>14424</v>
       </c>
       <c r="M390" t="n">
-        <v>13805.8744692954</v>
+        <v>14314.7</v>
       </c>
     </row>
     <row r="391">
@@ -24282,7 +24282,7 @@
         <v>3514</v>
       </c>
       <c r="M391" t="n">
-        <v>3993.642396806747</v>
+        <v>3844.153333333333</v>
       </c>
     </row>
     <row r="392">
@@ -24343,7 +24343,7 @@
         <v>6628</v>
       </c>
       <c r="M392" t="n">
-        <v>6908.937949769854</v>
+        <v>6881.88</v>
       </c>
     </row>
     <row r="393">
@@ -24404,7 +24404,7 @@
         <v>15339</v>
       </c>
       <c r="M393" t="n">
-        <v>13255.16893208699</v>
+        <v>12893.1395</v>
       </c>
     </row>
     <row r="394">
@@ -24465,7 +24465,7 @@
         <v>7591</v>
       </c>
       <c r="M394" t="n">
-        <v>6809.715435165989</v>
+        <v>6029.18</v>
       </c>
     </row>
     <row r="395">
@@ -24526,7 +24526,7 @@
         <v>10262</v>
       </c>
       <c r="M395" t="n">
-        <v>11647.60028904759</v>
+        <v>11722.19666666666</v>
       </c>
     </row>
     <row r="396">
@@ -24587,7 +24587,7 @@
         <v>10844</v>
       </c>
       <c r="M396" t="n">
-        <v>13172.79624414971</v>
+        <v>13981.56333333333</v>
       </c>
     </row>
     <row r="397">
@@ -24648,7 +24648,7 @@
         <v>13014</v>
       </c>
       <c r="M397" t="n">
-        <v>12001.91665276154</v>
+        <v>11762.8595</v>
       </c>
     </row>
     <row r="398">
@@ -24709,7 +24709,7 @@
         <v>7872</v>
       </c>
       <c r="M398" t="n">
-        <v>8041.785316987497</v>
+        <v>7693.58</v>
       </c>
     </row>
     <row r="399">
@@ -24770,7 +24770,7 @@
         <v>6541</v>
       </c>
       <c r="M399" t="n">
-        <v>5845.229507787258</v>
+        <v>5989.8</v>
       </c>
     </row>
     <row r="400">
@@ -24831,7 +24831,7 @@
         <v>6987</v>
       </c>
       <c r="M400" t="n">
-        <v>8592.364575327099</v>
+        <v>8541.99</v>
       </c>
     </row>
     <row r="401">
@@ -24892,7 +24892,7 @@
         <v>4823</v>
       </c>
       <c r="M401" t="n">
-        <v>4933.465745564486</v>
+        <v>4867.96</v>
       </c>
     </row>
     <row r="402">
@@ -24953,7 +24953,7 @@
         <v>6961</v>
       </c>
       <c r="M402" t="n">
-        <v>5294.000341401846</v>
+        <v>5027.532</v>
       </c>
     </row>
     <row r="403">
@@ -25014,7 +25014,7 @@
         <v>9899</v>
       </c>
       <c r="M403" t="n">
-        <v>12375.03806616352</v>
+        <v>12877.67716666667</v>
       </c>
     </row>
     <row r="404">
@@ -25075,7 +25075,7 @@
         <v>12295</v>
       </c>
       <c r="M404" t="n">
-        <v>12880.54081393204</v>
+        <v>13894.92</v>
       </c>
     </row>
     <row r="405">
@@ -25136,7 +25136,7 @@
         <v>6117</v>
       </c>
       <c r="M405" t="n">
-        <v>8393.956690782614</v>
+        <v>7460.37</v>
       </c>
     </row>
     <row r="406">
@@ -25197,7 +25197,7 @@
         <v>3543</v>
       </c>
       <c r="M406" t="n">
-        <v>3616.566637881523</v>
+        <v>3612.57</v>
       </c>
     </row>
     <row r="407">
@@ -25258,7 +25258,7 @@
         <v>12646</v>
       </c>
       <c r="M407" t="n">
-        <v>13293.19235911105</v>
+        <v>13379.61</v>
       </c>
     </row>
     <row r="408">
@@ -25319,7 +25319,7 @@
         <v>3919</v>
       </c>
       <c r="M408" t="n">
-        <v>4158.064296602975</v>
+        <v>4174.386666666667</v>
       </c>
     </row>
     <row r="409">
@@ -25380,7 +25380,7 @@
         <v>6982</v>
       </c>
       <c r="M409" t="n">
-        <v>8700.683285748602</v>
+        <v>8529.02</v>
       </c>
     </row>
     <row r="410">
@@ -25441,7 +25441,7 @@
         <v>13100</v>
       </c>
       <c r="M410" t="n">
-        <v>12601.65053287482</v>
+        <v>11807.67</v>
       </c>
     </row>
     <row r="411">
@@ -25502,7 +25502,7 @@
         <v>16079</v>
       </c>
       <c r="M411" t="n">
-        <v>13832.81511858252</v>
+        <v>12218.7575</v>
       </c>
     </row>
     <row r="412">
@@ -25563,7 +25563,7 @@
         <v>13082</v>
       </c>
       <c r="M412" t="n">
-        <v>14281.78424593343</v>
+        <v>14232.03</v>
       </c>
     </row>
     <row r="413">
@@ -25624,7 +25624,7 @@
         <v>6121</v>
       </c>
       <c r="M413" t="n">
-        <v>5618.142560741914</v>
+        <v>5780.627857142857</v>
       </c>
     </row>
     <row r="414">
@@ -25685,7 +25685,7 @@
         <v>4823</v>
       </c>
       <c r="M414" t="n">
-        <v>4988.383649296486</v>
+        <v>4985.9</v>
       </c>
     </row>
     <row r="415">
@@ -25746,7 +25746,7 @@
         <v>13941</v>
       </c>
       <c r="M415" t="n">
-        <v>10758.53123997921</v>
+        <v>9691.665000000001</v>
       </c>
     </row>
     <row r="416">
@@ -25807,7 +25807,7 @@
         <v>4544</v>
       </c>
       <c r="M416" t="n">
-        <v>6447.445596774672</v>
+        <v>6732.295</v>
       </c>
     </row>
     <row r="417">
@@ -25868,7 +25868,7 @@
         <v>4145</v>
       </c>
       <c r="M417" t="n">
-        <v>4337.43903621623</v>
+        <v>4469.48</v>
       </c>
     </row>
     <row r="418">
@@ -25929,7 +25929,7 @@
         <v>3919</v>
       </c>
       <c r="M418" t="n">
-        <v>4171.681397790482</v>
+        <v>4012.346666666667</v>
       </c>
     </row>
     <row r="419">
@@ -25990,7 +25990,7 @@
         <v>11982</v>
       </c>
       <c r="M419" t="n">
-        <v>11920.41992262499</v>
+        <v>11982</v>
       </c>
     </row>
     <row r="420">
@@ -26051,7 +26051,7 @@
         <v>5636</v>
       </c>
       <c r="M420" t="n">
-        <v>5937.769738710927</v>
+        <v>5868.99</v>
       </c>
     </row>
     <row r="421">
@@ -26112,7 +26112,7 @@
         <v>8656</v>
       </c>
       <c r="M421" t="n">
-        <v>9170.584869368005</v>
+        <v>8986.5075</v>
       </c>
     </row>
     <row r="422">
@@ -26173,7 +26173,7 @@
         <v>10844</v>
       </c>
       <c r="M422" t="n">
-        <v>12767.02724235261</v>
+        <v>13917.08316666667</v>
       </c>
     </row>
     <row r="423">
@@ -26234,7 +26234,7 @@
         <v>9856</v>
       </c>
       <c r="M423" t="n">
-        <v>10027.48373997557</v>
+        <v>10303.16</v>
       </c>
     </row>
     <row r="424">
@@ -26295,7 +26295,7 @@
         <v>3943</v>
       </c>
       <c r="M424" t="n">
-        <v>4216.354462265436</v>
+        <v>4265.13</v>
       </c>
     </row>
     <row r="425">
@@ -26356,7 +26356,7 @@
         <v>11570</v>
       </c>
       <c r="M425" t="n">
-        <v>13357.173411758</v>
+        <v>13455.22666666667</v>
       </c>
     </row>
     <row r="426">
@@ -26417,7 +26417,7 @@
         <v>4409</v>
       </c>
       <c r="M426" t="n">
-        <v>4295.004535316445</v>
+        <v>4278.446666666667</v>
       </c>
     </row>
     <row r="427">
@@ -26478,7 +26478,7 @@
         <v>6934</v>
       </c>
       <c r="M427" t="n">
-        <v>6426.911090822837</v>
+        <v>6734.49</v>
       </c>
     </row>
     <row r="428">
@@ -26539,7 +26539,7 @@
         <v>13817</v>
       </c>
       <c r="M428" t="n">
-        <v>13105.95495375756</v>
+        <v>12020.17166666667</v>
       </c>
     </row>
     <row r="429">
@@ -26600,7 +26600,7 @@
         <v>12121</v>
       </c>
       <c r="M429" t="n">
-        <v>11344.81916724699</v>
+        <v>10010.62416666667</v>
       </c>
     </row>
     <row r="430">
@@ -26661,7 +26661,7 @@
         <v>4804</v>
       </c>
       <c r="M430" t="n">
-        <v>4806.150439487702</v>
+        <v>4797.7</v>
       </c>
     </row>
     <row r="431">
@@ -26722,7 +26722,7 @@
         <v>5769</v>
       </c>
       <c r="M431" t="n">
-        <v>6960.858883790108</v>
+        <v>7572.0075</v>
       </c>
     </row>
     <row r="432">
@@ -26783,7 +26783,7 @@
         <v>4174</v>
       </c>
       <c r="M432" t="n">
-        <v>3957.843757837598</v>
+        <v>3930.078</v>
       </c>
     </row>
     <row r="433">
@@ -26844,7 +26844,7 @@
         <v>6309</v>
       </c>
       <c r="M433" t="n">
-        <v>5198.199424804071</v>
+        <v>5157.833666666666</v>
       </c>
     </row>
     <row r="434">
@@ -26905,7 +26905,7 @@
         <v>1965</v>
       </c>
       <c r="M434" t="n">
-        <v>2120.550131005013</v>
+        <v>2003.487666666667</v>
       </c>
     </row>
     <row r="435">
@@ -26966,7 +26966,7 @@
         <v>10406</v>
       </c>
       <c r="M435" t="n">
-        <v>11799.79752448791</v>
+        <v>11490.96083333333</v>
       </c>
     </row>
     <row r="436">
@@ -27027,7 +27027,7 @@
         <v>8996</v>
       </c>
       <c r="M436" t="n">
-        <v>7622.463446616532</v>
+        <v>8207.906666666668</v>
       </c>
     </row>
     <row r="437">
@@ -27088,7 +27088,7 @@
         <v>10844</v>
       </c>
       <c r="M437" t="n">
-        <v>12277.00836208667</v>
+        <v>11851.75466666667</v>
       </c>
     </row>
     <row r="438">
@@ -27149,7 +27149,7 @@
         <v>13377</v>
       </c>
       <c r="M438" t="n">
-        <v>12855.75544420734</v>
+        <v>13179.9275</v>
       </c>
     </row>
     <row r="439">
@@ -27210,7 +27210,7 @@
         <v>8479</v>
       </c>
       <c r="M439" t="n">
-        <v>8222.239656642922</v>
+        <v>8108.63</v>
       </c>
     </row>
     <row r="440">
@@ -27271,7 +27271,7 @@
         <v>31825</v>
       </c>
       <c r="M440" t="n">
-        <v>33124.64552679136</v>
+        <v>32878.81</v>
       </c>
     </row>
     <row r="441">
@@ -27332,7 +27332,7 @@
         <v>5706</v>
       </c>
       <c r="M441" t="n">
-        <v>6338.698334249029</v>
+        <v>6396.812</v>
       </c>
     </row>
     <row r="442">
@@ -27393,7 +27393,7 @@
         <v>12284</v>
       </c>
       <c r="M442" t="n">
-        <v>11551.1039206331</v>
+        <v>11421.88</v>
       </c>
     </row>
     <row r="443">
@@ -27454,7 +27454,7 @@
         <v>4544</v>
       </c>
       <c r="M443" t="n">
-        <v>6407.970806034443</v>
+        <v>6270.260833333335</v>
       </c>
     </row>
     <row r="444">
@@ -27515,7 +27515,7 @@
         <v>6017</v>
       </c>
       <c r="M444" t="n">
-        <v>10727.84288915095</v>
+        <v>11261.87</v>
       </c>
     </row>
     <row r="445">
@@ -27576,7 +27576,7 @@
         <v>14781</v>
       </c>
       <c r="M445" t="n">
-        <v>12856.02921703962</v>
+        <v>13375.13783333333</v>
       </c>
     </row>
     <row r="446">
@@ -27637,7 +27637,7 @@
         <v>12646</v>
       </c>
       <c r="M446" t="n">
-        <v>12522.00082747752</v>
+        <v>12325.9</v>
       </c>
     </row>
     <row r="447">
@@ -27698,7 +27698,7 @@
         <v>3858</v>
       </c>
       <c r="M447" t="n">
-        <v>4068.643571670679</v>
+        <v>3877.326</v>
       </c>
     </row>
     <row r="448">
@@ -27759,7 +27759,7 @@
         <v>4957</v>
       </c>
       <c r="M448" t="n">
-        <v>5526.081475442774</v>
+        <v>5008.516190476191</v>
       </c>
     </row>
     <row r="449">
@@ -27820,7 +27820,7 @@
         <v>10262</v>
       </c>
       <c r="M449" t="n">
-        <v>10338.01726764938</v>
+        <v>10256.71</v>
       </c>
     </row>
     <row r="450">
@@ -27881,7 +27881,7 @@
         <v>10031</v>
       </c>
       <c r="M450" t="n">
-        <v>12693.54267793081</v>
+        <v>13188.59866666667</v>
       </c>
     </row>
     <row r="451">
@@ -27942,7 +27942,7 @@
         <v>14388</v>
       </c>
       <c r="M451" t="n">
-        <v>10764.68258679455</v>
+        <v>10229.905</v>
       </c>
     </row>
     <row r="452">
@@ -28003,7 +28003,7 @@
         <v>10844</v>
       </c>
       <c r="M452" t="n">
-        <v>10633.9619242923</v>
+        <v>10553.97</v>
       </c>
     </row>
     <row r="453">
@@ -28064,7 +28064,7 @@
         <v>8882</v>
       </c>
       <c r="M453" t="n">
-        <v>9037.228991208509</v>
+        <v>8685.208952380954</v>
       </c>
     </row>
     <row r="454">
@@ -28125,7 +28125,7 @@
         <v>13014</v>
       </c>
       <c r="M454" t="n">
-        <v>11727.42712001235</v>
+        <v>11279.57</v>
       </c>
     </row>
     <row r="455">
@@ -28186,7 +28186,7 @@
         <v>8366</v>
       </c>
       <c r="M455" t="n">
-        <v>8818.989446723477</v>
+        <v>8831.870000000001</v>
       </c>
     </row>
     <row r="456">
@@ -28247,7 +28247,7 @@
         <v>6015</v>
       </c>
       <c r="M456" t="n">
-        <v>5762.00805991588</v>
+        <v>6149.35</v>
       </c>
     </row>
     <row r="457">
@@ -28308,7 +28308,7 @@
         <v>20694</v>
       </c>
       <c r="M457" t="n">
-        <v>18920.03475426978</v>
+        <v>19179.9465</v>
       </c>
     </row>
     <row r="458">
@@ -28369,7 +28369,7 @@
         <v>17024</v>
       </c>
       <c r="M458" t="n">
-        <v>16920.72058626767</v>
+        <v>17232.78</v>
       </c>
     </row>
     <row r="459">
@@ -28430,7 +28430,7 @@
         <v>14762</v>
       </c>
       <c r="M459" t="n">
-        <v>23132.4770075287</v>
+        <v>24233.96</v>
       </c>
     </row>
     <row r="460">
@@ -28491,7 +28491,7 @@
         <v>3625</v>
       </c>
       <c r="M460" t="n">
-        <v>3188.071624310494</v>
+        <v>3338.04</v>
       </c>
     </row>
     <row r="461">
@@ -28552,7 +28552,7 @@
         <v>2227</v>
       </c>
       <c r="M461" t="n">
-        <v>2604.936806017293</v>
+        <v>2424.92</v>
       </c>
     </row>
     <row r="462">
@@ -28613,7 +28613,7 @@
         <v>4804</v>
       </c>
       <c r="M462" t="n">
-        <v>4784.689625944791</v>
+        <v>4780.02</v>
       </c>
     </row>
     <row r="463">
@@ -28674,7 +28674,7 @@
         <v>5678</v>
       </c>
       <c r="M463" t="n">
-        <v>4517.459441318081</v>
+        <v>4176.67</v>
       </c>
     </row>
     <row r="464">
@@ -28735,7 +28735,7 @@
         <v>2470</v>
       </c>
       <c r="M464" t="n">
-        <v>5384.334316136295</v>
+        <v>5614.336666666666</v>
       </c>
     </row>
     <row r="465">
@@ -28796,7 +28796,7 @@
         <v>12284</v>
       </c>
       <c r="M465" t="n">
-        <v>12687.31503378151</v>
+        <v>13180.11133333333</v>
       </c>
     </row>
     <row r="466">
@@ -28857,7 +28857,7 @@
         <v>3419</v>
       </c>
       <c r="M466" t="n">
-        <v>3753.510590087179</v>
+        <v>3755.42</v>
       </c>
     </row>
     <row r="467">
@@ -28918,7 +28918,7 @@
         <v>12767</v>
       </c>
       <c r="M467" t="n">
-        <v>9226.650672486427</v>
+        <v>8238.310333333335</v>
       </c>
     </row>
     <row r="468">
@@ -28979,7 +28979,7 @@
         <v>4668</v>
       </c>
       <c r="M468" t="n">
-        <v>4953.432831207081</v>
+        <v>4928.4</v>
       </c>
     </row>
     <row r="469">
@@ -29040,7 +29040,7 @@
         <v>3625</v>
       </c>
       <c r="M469" t="n">
-        <v>4169.66313637118</v>
+        <v>4217.36</v>
       </c>
     </row>
     <row r="470">
@@ -29101,7 +29101,7 @@
         <v>3597</v>
       </c>
       <c r="M470" t="n">
-        <v>3564.548022512509</v>
+        <v>3549.075</v>
       </c>
     </row>
     <row r="471">
@@ -29162,7 +29162,7 @@
         <v>5224</v>
       </c>
       <c r="M471" t="n">
-        <v>4776.7459916551</v>
+        <v>4970.15</v>
       </c>
     </row>
     <row r="472">
@@ -29223,7 +29223,7 @@
         <v>6147</v>
       </c>
       <c r="M472" t="n">
-        <v>6346.962746142589</v>
+        <v>6270.76</v>
       </c>
     </row>
     <row r="473">
@@ -29284,7 +29284,7 @@
         <v>8016</v>
       </c>
       <c r="M473" t="n">
-        <v>4877.088753414104</v>
+        <v>4709.82</v>
       </c>
     </row>
     <row r="474">
@@ -29345,7 +29345,7 @@
         <v>11148</v>
       </c>
       <c r="M474" t="n">
-        <v>10884.2802563067</v>
+        <v>10770.12</v>
       </c>
     </row>
     <row r="475">
@@ -29406,7 +29406,7 @@
         <v>13376</v>
       </c>
       <c r="M475" t="n">
-        <v>12013.17728669276</v>
+        <v>11696.3745</v>
       </c>
     </row>
     <row r="476">
@@ -29467,7 +29467,7 @@
         <v>12488</v>
       </c>
       <c r="M476" t="n">
-        <v>12340.72852366042</v>
+        <v>12093.45</v>
       </c>
     </row>
     <row r="477">
@@ -29528,7 +29528,7 @@
         <v>6017</v>
       </c>
       <c r="M477" t="n">
-        <v>9226.650672486427</v>
+        <v>8238.310333333335</v>
       </c>
     </row>
     <row r="478">
@@ -29589,7 +29589,7 @@
         <v>4823</v>
       </c>
       <c r="M478" t="n">
-        <v>4815.030822913865</v>
+        <v>4815.12</v>
       </c>
     </row>
     <row r="479">
@@ -29650,7 +29650,7 @@
         <v>7532</v>
       </c>
       <c r="M479" t="n">
-        <v>6637.458056715252</v>
+        <v>6620.45</v>
       </c>
     </row>
     <row r="480">
@@ -29711,7 +29711,7 @@
         <v>11432</v>
       </c>
       <c r="M480" t="n">
-        <v>12155.50266329051</v>
+        <v>11825.61</v>
       </c>
     </row>
     <row r="481">
@@ -29772,7 +29772,7 @@
         <v>5088</v>
       </c>
       <c r="M481" t="n">
-        <v>4913.704722779968</v>
+        <v>4880.1</v>
       </c>
     </row>
     <row r="482">
@@ -29833,7 +29833,7 @@
         <v>5351</v>
       </c>
       <c r="M482" t="n">
-        <v>6680.516972902315</v>
+        <v>6519.89</v>
       </c>
     </row>
     <row r="483">
@@ -29894,7 +29894,7 @@
         <v>8610</v>
       </c>
       <c r="M483" t="n">
-        <v>8754.594871299463</v>
+        <v>8943.68</v>
       </c>
     </row>
     <row r="484">
@@ -29955,7 +29955,7 @@
         <v>17271</v>
       </c>
       <c r="M484" t="n">
-        <v>16625.61636488038</v>
+        <v>16211.335</v>
       </c>
     </row>
     <row r="485">
@@ -30016,7 +30016,7 @@
         <v>9314</v>
       </c>
       <c r="M485" t="n">
-        <v>11993.30204428674</v>
+        <v>11728.415</v>
       </c>
     </row>
     <row r="486">
@@ -30077,7 +30077,7 @@
         <v>3847</v>
       </c>
       <c r="M486" t="n">
-        <v>4085.659145334516</v>
+        <v>3933.962</v>
       </c>
     </row>
     <row r="487">
@@ -30138,7 +30138,7 @@
         <v>8372</v>
       </c>
       <c r="M487" t="n">
-        <v>9095.315120177564</v>
+        <v>8870.02</v>
       </c>
     </row>
     <row r="488">
@@ -30199,7 +30199,7 @@
         <v>10877</v>
       </c>
       <c r="M488" t="n">
-        <v>10802.28277608367</v>
+        <v>10730.91</v>
       </c>
     </row>
     <row r="489">
@@ -30260,7 +30260,7 @@
         <v>4423</v>
       </c>
       <c r="M489" t="n">
-        <v>4379.497997542738</v>
+        <v>4541.479333333334</v>
       </c>
     </row>
     <row r="490">
@@ -30321,7 +30321,7 @@
         <v>6297</v>
       </c>
       <c r="M490" t="n">
-        <v>5543.477748147227</v>
+        <v>5632.001666666666</v>
       </c>
     </row>
     <row r="491">
@@ -30382,7 +30382,7 @@
         <v>6216</v>
       </c>
       <c r="M491" t="n">
-        <v>5915.696058941151</v>
+        <v>6084.94</v>
       </c>
     </row>
     <row r="492">
@@ -30443,7 +30443,7 @@
         <v>7933</v>
       </c>
       <c r="M492" t="n">
-        <v>12159.41709433183</v>
+        <v>11648.198</v>
       </c>
     </row>
     <row r="493">
@@ -30504,7 +30504,7 @@
         <v>10678</v>
       </c>
       <c r="M493" t="n">
-        <v>10056.49683757395</v>
+        <v>9946.469999999999</v>
       </c>
     </row>
     <row r="494">
@@ -30565,7 +30565,7 @@
         <v>2017</v>
       </c>
       <c r="M494" t="n">
-        <v>2185.239819610241</v>
+        <v>1960.697</v>
       </c>
     </row>
     <row r="495">
@@ -30626,7 +30626,7 @@
         <v>5000</v>
       </c>
       <c r="M495" t="n">
-        <v>5631.389091917328</v>
+        <v>5587.62</v>
       </c>
     </row>
     <row r="496">
@@ -30687,7 +30687,7 @@
         <v>18736</v>
       </c>
       <c r="M496" t="n">
-        <v>12567.43684194529</v>
+        <v>12580.75</v>
       </c>
     </row>
     <row r="497">
@@ -30748,7 +30748,7 @@
         <v>4030</v>
       </c>
       <c r="M497" t="n">
-        <v>6077.856256302541</v>
+        <v>6877.094</v>
       </c>
     </row>
     <row r="498">
@@ -30809,7 +30809,7 @@
         <v>10368</v>
       </c>
       <c r="M498" t="n">
-        <v>13614.06726692786</v>
+        <v>13431.0325</v>
       </c>
     </row>
     <row r="499">
@@ -30870,7 +30870,7 @@
         <v>9663</v>
       </c>
       <c r="M499" t="n">
-        <v>11429.08935116011</v>
+        <v>11277.46766666667</v>
       </c>
     </row>
     <row r="500">
@@ -30931,7 +30931,7 @@
         <v>5613</v>
       </c>
       <c r="M500" t="n">
-        <v>5571.56631831391</v>
+        <v>5711.7</v>
       </c>
     </row>
     <row r="501">
@@ -30992,7 +30992,7 @@
         <v>7757</v>
       </c>
       <c r="M501" t="n">
-        <v>10875.66937319068</v>
+        <v>10746.6115</v>
       </c>
     </row>
     <row r="502">
@@ -31053,7 +31053,7 @@
         <v>6442</v>
       </c>
       <c r="M502" t="n">
-        <v>6508.911371236975</v>
+        <v>6584.64</v>
       </c>
     </row>
     <row r="503">
@@ -31114,7 +31114,7 @@
         <v>2754</v>
       </c>
       <c r="M503" t="n">
-        <v>3046.905422726779</v>
+        <v>3382.03</v>
       </c>
     </row>
     <row r="504">
@@ -31175,7 +31175,7 @@
         <v>3758</v>
       </c>
       <c r="M504" t="n">
-        <v>5063.4123616195</v>
+        <v>4658.539166666666</v>
       </c>
     </row>
     <row r="505">
@@ -31236,7 +31236,7 @@
         <v>6152</v>
       </c>
       <c r="M505" t="n">
-        <v>7427.508365391124</v>
+        <v>7038.39</v>
       </c>
     </row>
     <row r="506">
@@ -31297,7 +31297,7 @@
         <v>7618</v>
       </c>
       <c r="M506" t="n">
-        <v>8665.941482997063</v>
+        <v>8175.467333333334</v>
       </c>
     </row>
     <row r="507">
@@ -31358,7 +31358,7 @@
         <v>12646</v>
       </c>
       <c r="M507" t="n">
-        <v>12681.23509778393</v>
+        <v>12861.51</v>
       </c>
     </row>
     <row r="508">
@@ -31419,7 +31419,7 @@
         <v>14781</v>
       </c>
       <c r="M508" t="n">
-        <v>12413.88307367902</v>
+        <v>12351.45333333333</v>
       </c>
     </row>
     <row r="509">
@@ -31480,7 +31480,7 @@
         <v>13377</v>
       </c>
       <c r="M509" t="n">
-        <v>9934.175185509281</v>
+        <v>8419.681666666667</v>
       </c>
     </row>
     <row r="510">
@@ -31541,7 +31541,7 @@
         <v>9564</v>
       </c>
       <c r="M510" t="n">
-        <v>7385.787564342781</v>
+        <v>7848.598333333332</v>
       </c>
     </row>
     <row r="511">
@@ -31602,7 +31602,7 @@
         <v>6113</v>
       </c>
       <c r="M511" t="n">
-        <v>6655.084837303716</v>
+        <v>6326.31</v>
       </c>
     </row>
     <row r="512">
@@ -31663,7 +31663,7 @@
         <v>26480</v>
       </c>
       <c r="M512" t="n">
-        <v>16404.14470394142</v>
+        <v>21006.92</v>
       </c>
     </row>
     <row r="513">
@@ -31724,7 +31724,7 @@
         <v>5769</v>
       </c>
       <c r="M513" t="n">
-        <v>6897.463729176866</v>
+        <v>7789.063333333333</v>
       </c>
     </row>
     <row r="514">
@@ -31785,7 +31785,7 @@
         <v>1759</v>
       </c>
       <c r="M514" t="n">
-        <v>2737.274263340298</v>
+        <v>2427.27</v>
       </c>
     </row>
     <row r="515">
@@ -31846,7 +31846,7 @@
         <v>5883</v>
       </c>
       <c r="M515" t="n">
-        <v>6308.740779586363</v>
+        <v>6168.19</v>
       </c>
     </row>
     <row r="516">
@@ -31907,7 +31907,7 @@
         <v>5176</v>
       </c>
       <c r="M516" t="n">
-        <v>5549.734577830504</v>
+        <v>5560.01</v>
       </c>
     </row>
     <row r="517">
@@ -31968,7 +31968,7 @@
         <v>4804</v>
       </c>
       <c r="M517" t="n">
-        <v>4906.801233463878</v>
+        <v>4968.75</v>
       </c>
     </row>
     <row r="518">
@@ -32029,7 +32029,7 @@
         <v>3398</v>
       </c>
       <c r="M518" t="n">
-        <v>3787.413083573812</v>
+        <v>3849.81</v>
       </c>
     </row>
     <row r="519">
@@ -32090,7 +32090,7 @@
         <v>9416</v>
       </c>
       <c r="M519" t="n">
-        <v>10424.50340531617</v>
+        <v>10725.76</v>
       </c>
     </row>
     <row r="520">
@@ -32151,7 +32151,7 @@
         <v>3841</v>
       </c>
       <c r="M520" t="n">
-        <v>3861.579657095098</v>
+        <v>3871.986666666667</v>
       </c>
     </row>
     <row r="521">
@@ -32212,7 +32212,7 @@
         <v>10262</v>
       </c>
       <c r="M521" t="n">
-        <v>10549.41109362297</v>
+        <v>10262.965</v>
       </c>
     </row>
     <row r="522">
@@ -32273,7 +32273,7 @@
         <v>4804</v>
       </c>
       <c r="M522" t="n">
-        <v>4805.116517431752</v>
+        <v>4820.8</v>
       </c>
     </row>
     <row r="523">
@@ -32334,7 +32334,7 @@
         <v>5177</v>
       </c>
       <c r="M523" t="n">
-        <v>6147.113436801166</v>
+        <v>5418.43</v>
       </c>
     </row>
     <row r="524">
@@ -32395,7 +32395,7 @@
         <v>2437</v>
       </c>
       <c r="M524" t="n">
-        <v>2253.449486800608</v>
+        <v>2261.25</v>
       </c>
     </row>
     <row r="525">
@@ -32456,7 +32456,7 @@
         <v>8422</v>
       </c>
       <c r="M525" t="n">
-        <v>10306.97321997657</v>
+        <v>10638.97</v>
       </c>
     </row>
     <row r="526">
@@ -32517,7 +32517,7 @@
         <v>13797</v>
       </c>
       <c r="M526" t="n">
-        <v>10888.1147977679</v>
+        <v>9829.794833333333</v>
       </c>
     </row>
     <row r="527">
@@ -32578,7 +32578,7 @@
         <v>10368</v>
       </c>
       <c r="M527" t="n">
-        <v>12001.91665276154</v>
+        <v>11762.8595</v>
       </c>
     </row>
     <row r="528">
@@ -32639,7 +32639,7 @@
         <v>7081</v>
       </c>
       <c r="M528" t="n">
-        <v>7194.448854752837</v>
+        <v>7157.69</v>
       </c>
     </row>
     <row r="529">
@@ -32700,7 +32700,7 @@
         <v>8513</v>
       </c>
       <c r="M529" t="n">
-        <v>10464.38407196098</v>
+        <v>9881.440000000001</v>
       </c>
     </row>
     <row r="530">
@@ -32761,7 +32761,7 @@
         <v>7229</v>
       </c>
       <c r="M530" t="n">
-        <v>6339.022702468114</v>
+        <v>6603.2325</v>
       </c>
     </row>
     <row r="531">
@@ -32822,7 +32822,7 @@
         <v>6273</v>
       </c>
       <c r="M531" t="n">
-        <v>9076.569175534196</v>
+        <v>8365.366666666667</v>
       </c>
     </row>
     <row r="532">
@@ -32883,7 +32883,7 @@
         <v>3100</v>
       </c>
       <c r="M532" t="n">
-        <v>3145.709482973871</v>
+        <v>3183.5</v>
       </c>
     </row>
     <row r="533">
@@ -32944,7 +32944,7 @@
         <v>4804</v>
       </c>
       <c r="M533" t="n">
-        <v>4803.80307410907</v>
+        <v>4820.8</v>
       </c>
     </row>
     <row r="534">
@@ -33005,7 +33005,7 @@
         <v>7229</v>
       </c>
       <c r="M534" t="n">
-        <v>7399.488199807572</v>
+        <v>7177.58</v>
       </c>
     </row>
     <row r="535">
@@ -33066,7 +33066,7 @@
         <v>3841</v>
       </c>
       <c r="M535" t="n">
-        <v>4215.489834299334</v>
+        <v>4161.1</v>
       </c>
     </row>
     <row r="536">
@@ -33127,7 +33127,7 @@
         <v>8586</v>
       </c>
       <c r="M536" t="n">
-        <v>12459.10391702393</v>
+        <v>13444.13166666666</v>
       </c>
     </row>
     <row r="537">
@@ -33188,7 +33188,7 @@
         <v>11200</v>
       </c>
       <c r="M537" t="n">
-        <v>10887.54735231202</v>
+        <v>11009.25</v>
       </c>
     </row>
     <row r="538">
@@ -33249,7 +33249,7 @@
         <v>17267</v>
       </c>
       <c r="M538" t="n">
-        <v>14511.55541218069</v>
+        <v>15433.94166666667</v>
       </c>
     </row>
     <row r="539">
@@ -33310,7 +33310,7 @@
         <v>8586</v>
       </c>
       <c r="M539" t="n">
-        <v>11502.92504029608</v>
+        <v>13056.36616666667</v>
       </c>
     </row>
     <row r="540">
@@ -33371,7 +33371,7 @@
         <v>11432</v>
       </c>
       <c r="M540" t="n">
-        <v>12123.26457394749</v>
+        <v>11822.32</v>
       </c>
     </row>
     <row r="541">
@@ -33432,7 +33432,7 @@
         <v>12940</v>
       </c>
       <c r="M541" t="n">
-        <v>11526.08408292035</v>
+        <v>11796.71</v>
       </c>
     </row>
     <row r="542">
@@ -33493,7 +33493,7 @@
         <v>12475</v>
       </c>
       <c r="M542" t="n">
-        <v>16057.63544550345</v>
+        <v>16569.09</v>
       </c>
     </row>
     <row r="543">
@@ -33554,7 +33554,7 @@
         <v>11134</v>
       </c>
       <c r="M543" t="n">
-        <v>12382.45046341433</v>
+        <v>12375.26419047619</v>
       </c>
     </row>
     <row r="544">
@@ -33615,7 +33615,7 @@
         <v>5644</v>
       </c>
       <c r="M544" t="n">
-        <v>4596.086022737261</v>
+        <v>4693.4</v>
       </c>
     </row>
     <row r="545">
@@ -33676,7 +33676,7 @@
         <v>10877</v>
       </c>
       <c r="M545" t="n">
-        <v>10720.97609502069</v>
+        <v>10969.55</v>
       </c>
     </row>
     <row r="546">
@@ -33737,7 +33737,7 @@
         <v>7229</v>
       </c>
       <c r="M546" t="n">
-        <v>5969.662914232762</v>
+        <v>5357.49</v>
       </c>
     </row>
     <row r="547">
@@ -33798,7 +33798,7 @@
         <v>8586</v>
       </c>
       <c r="M547" t="n">
-        <v>11900.42781188736</v>
+        <v>12971.81</v>
       </c>
     </row>
     <row r="548">
@@ -33859,7 +33859,7 @@
         <v>10368</v>
       </c>
       <c r="M548" t="n">
-        <v>11947.05971635639</v>
+        <v>12296.08023809524</v>
       </c>
     </row>
     <row r="549">
@@ -33920,7 +33920,7 @@
         <v>9863</v>
       </c>
       <c r="M549" t="n">
-        <v>10766.14998831226</v>
+        <v>10135.97</v>
       </c>
     </row>
     <row r="550">
@@ -33981,7 +33981,7 @@
         <v>4864</v>
       </c>
       <c r="M550" t="n">
-        <v>5928.726971218346</v>
+        <v>5470.36</v>
       </c>
     </row>
     <row r="551">
@@ -34042,7 +34042,7 @@
         <v>4384</v>
       </c>
       <c r="M551" t="n">
-        <v>4538.327642570219</v>
+        <v>4538.56</v>
       </c>
     </row>
     <row r="552">
@@ -34103,7 +34103,7 @@
         <v>13591</v>
       </c>
       <c r="M552" t="n">
-        <v>13536.90686051679</v>
+        <v>13842.41</v>
       </c>
     </row>
     <row r="553">
@@ -34164,7 +34164,7 @@
         <v>12384</v>
       </c>
       <c r="M553" t="n">
-        <v>12623.28033448788</v>
+        <v>12825.27416666667</v>
       </c>
     </row>
     <row r="554">
@@ -34225,7 +34225,7 @@
         <v>12373</v>
       </c>
       <c r="M554" t="n">
-        <v>12442.34087897037</v>
+        <v>12399.045</v>
       </c>
     </row>
     <row r="555">
@@ -34286,7 +34286,7 @@
         <v>10368</v>
       </c>
       <c r="M555" t="n">
-        <v>12114.49606055434</v>
+        <v>11855.1845</v>
       </c>
     </row>
     <row r="556">
@@ -34347,7 +34347,7 @@
         <v>12723</v>
       </c>
       <c r="M556" t="n">
-        <v>13362.39840371573</v>
+        <v>12450.88</v>
       </c>
     </row>
     <row r="557">
@@ -34408,7 +34408,7 @@
         <v>12242</v>
       </c>
       <c r="M557" t="n">
-        <v>9886.369792451296</v>
+        <v>9310.949476190475</v>
       </c>
     </row>
     <row r="558">
@@ -34469,7 +34469,7 @@
         <v>5769</v>
       </c>
       <c r="M558" t="n">
-        <v>7373.578670132144</v>
+        <v>7019.0475</v>
       </c>
     </row>
     <row r="559">
@@ -34530,7 +34530,7 @@
         <v>7006</v>
       </c>
       <c r="M559" t="n">
-        <v>7203.746873803975</v>
+        <v>7135.07</v>
       </c>
     </row>
     <row r="560">
@@ -34591,7 +34591,7 @@
         <v>8372</v>
       </c>
       <c r="M560" t="n">
-        <v>8727.849469849525</v>
+        <v>8583.129999999999</v>
       </c>
     </row>
     <row r="561">
@@ -34652,7 +34652,7 @@
         <v>14178</v>
       </c>
       <c r="M561" t="n">
-        <v>11216.64636823312</v>
+        <v>10455.62333333333</v>
       </c>
     </row>
     <row r="562">
@@ -34713,7 +34713,7 @@
         <v>20800</v>
       </c>
       <c r="M562" t="n">
-        <v>30360.26009089131</v>
+        <v>30537.79</v>
       </c>
     </row>
     <row r="563">
@@ -34774,7 +34774,7 @@
         <v>8452</v>
       </c>
       <c r="M563" t="n">
-        <v>8739.678356751376</v>
+        <v>8406.040000000001</v>
       </c>
     </row>
     <row r="564">
@@ -34835,7 +34835,7 @@
         <v>10844</v>
       </c>
       <c r="M564" t="n">
-        <v>11228.80901997097</v>
+        <v>11246.89666666667</v>
       </c>
     </row>
     <row r="565">
@@ -34896,7 +34896,7 @@
         <v>4668</v>
       </c>
       <c r="M565" t="n">
-        <v>4950.574433503483</v>
+        <v>4786.65</v>
       </c>
     </row>
     <row r="566">
@@ -34957,7 +34957,7 @@
         <v>12681</v>
       </c>
       <c r="M566" t="n">
-        <v>8786.186094446201</v>
+        <v>7991.484166666666</v>
       </c>
     </row>
     <row r="567">
@@ -35018,7 +35018,7 @@
         <v>4487</v>
       </c>
       <c r="M567" t="n">
-        <v>5801.190163581296</v>
+        <v>5290.17</v>
       </c>
     </row>
     <row r="568">
@@ -35079,7 +35079,7 @@
         <v>14571</v>
       </c>
       <c r="M568" t="n">
-        <v>12058.21025619037</v>
+        <v>11485.23566666667</v>
       </c>
     </row>
     <row r="569">
@@ -35140,7 +35140,7 @@
         <v>3841</v>
       </c>
       <c r="M569" t="n">
-        <v>4022.915874775797</v>
+        <v>3882.535666666667</v>
       </c>
     </row>
     <row r="570">
@@ -35201,7 +35201,7 @@
         <v>3873</v>
       </c>
       <c r="M570" t="n">
-        <v>3841.516079452833</v>
+        <v>3846.653333333334</v>
       </c>
     </row>
     <row r="571">
@@ -35262,7 +35262,7 @@
         <v>16372</v>
       </c>
       <c r="M571" t="n">
-        <v>14127.79376930864</v>
+        <v>14509.54</v>
       </c>
     </row>
     <row r="572">
@@ -35323,7 +35323,7 @@
         <v>14897</v>
       </c>
       <c r="M572" t="n">
-        <v>14154.67142190383</v>
+        <v>14131.3025</v>
       </c>
     </row>
     <row r="573">
@@ -35384,7 +35384,7 @@
         <v>8614</v>
       </c>
       <c r="M573" t="n">
-        <v>7941.93682582986</v>
+        <v>7744.3</v>
       </c>
     </row>
     <row r="574">
@@ -35445,7 +35445,7 @@
         <v>9653</v>
       </c>
       <c r="M574" t="n">
-        <v>10220.82808746663</v>
+        <v>9647.34</v>
       </c>
     </row>
     <row r="575">
@@ -35506,7 +35506,7 @@
         <v>3574</v>
       </c>
       <c r="M575" t="n">
-        <v>3986.589378241885</v>
+        <v>3940.31</v>
       </c>
     </row>
     <row r="576">
@@ -35567,7 +35567,7 @@
         <v>7064</v>
       </c>
       <c r="M576" t="n">
-        <v>11394.90937006004</v>
+        <v>12032.14</v>
       </c>
     </row>
     <row r="577">
@@ -35628,7 +35628,7 @@
         <v>5755</v>
       </c>
       <c r="M577" t="n">
-        <v>4139.167761160562</v>
+        <v>4125.18</v>
       </c>
     </row>
     <row r="578">
@@ -35689,7 +35689,7 @@
         <v>13432</v>
       </c>
       <c r="M578" t="n">
-        <v>13277.23784570455</v>
+        <v>14111.43</v>
       </c>
     </row>
     <row r="579">
@@ -35750,7 +35750,7 @@
         <v>8669</v>
       </c>
       <c r="M579" t="n">
-        <v>9097.542048581667</v>
+        <v>8747.360000000001</v>
       </c>
     </row>
     <row r="580">
@@ -35811,7 +35811,7 @@
         <v>17057</v>
       </c>
       <c r="M580" t="n">
-        <v>16160.38663150258</v>
+        <v>15953.06</v>
       </c>
     </row>
     <row r="581">
@@ -35872,7 +35872,7 @@
         <v>17261</v>
       </c>
       <c r="M581" t="n">
-        <v>15943.65508664336</v>
+        <v>15471.28</v>
       </c>
     </row>
     <row r="582">
@@ -35933,7 +35933,7 @@
         <v>6795</v>
       </c>
       <c r="M582" t="n">
-        <v>8369.148815414657</v>
+        <v>7659.93</v>
       </c>
     </row>
     <row r="583">
@@ -35994,7 +35994,7 @@
         <v>9663</v>
       </c>
       <c r="M583" t="n">
-        <v>12525.33166408509</v>
+        <v>13060.19455555555</v>
       </c>
     </row>
     <row r="584">
@@ -36055,7 +36055,7 @@
         <v>11789</v>
       </c>
       <c r="M584" t="n">
-        <v>10935.36900287706</v>
+        <v>11509.29</v>
       </c>
     </row>
     <row r="585">
@@ -36116,7 +36116,7 @@
         <v>10262</v>
       </c>
       <c r="M585" t="n">
-        <v>10428.75428701512</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="586">
@@ -36177,7 +36177,7 @@
         <v>8844</v>
       </c>
       <c r="M586" t="n">
-        <v>10169.18640203199</v>
+        <v>10972.72</v>
       </c>
     </row>
     <row r="587">
@@ -36238,7 +36238,7 @@
         <v>4544</v>
       </c>
       <c r="M587" t="n">
-        <v>6155.88195914939</v>
+        <v>6760.553333333333</v>
       </c>
     </row>
     <row r="588">
@@ -36299,7 +36299,7 @@
         <v>6148</v>
       </c>
       <c r="M588" t="n">
-        <v>8139.927211370409</v>
+        <v>7784.793833333333</v>
       </c>
     </row>
     <row r="589">
@@ -36360,7 +36360,7 @@
         <v>2227</v>
       </c>
       <c r="M589" t="n">
-        <v>2255.930914621737</v>
+        <v>2291.58</v>
       </c>
     </row>
     <row r="590">
@@ -36421,7 +36421,7 @@
         <v>13292</v>
       </c>
       <c r="M590" t="n">
-        <v>12173.89081373884</v>
+        <v>12906.4865</v>
       </c>
     </row>
     <row r="591">
@@ -36482,7 +36482,7 @@
         <v>3383</v>
       </c>
       <c r="M591" t="n">
-        <v>4871.317294960315</v>
+        <v>4572.940833333334</v>
       </c>
     </row>
     <row r="592">
@@ -36543,7 +36543,7 @@
         <v>14300</v>
       </c>
       <c r="M592" t="n">
-        <v>13584.50181948684</v>
+        <v>13502.05197619047</v>
       </c>
     </row>
     <row r="593">
@@ -36604,7 +36604,7 @@
         <v>10844</v>
       </c>
       <c r="M593" t="n">
-        <v>12087.66062894793</v>
+        <v>11734.67</v>
       </c>
     </row>
     <row r="594">
@@ -36665,7 +36665,7 @@
         <v>5158</v>
       </c>
       <c r="M594" t="n">
-        <v>5356.013592207008</v>
+        <v>5240.353333333333</v>
       </c>
     </row>
     <row r="595">
@@ -36726,7 +36726,7 @@
         <v>12819</v>
       </c>
       <c r="M595" t="n">
-        <v>12724.77222567643</v>
+        <v>12672.34330555555</v>
       </c>
     </row>
     <row r="596">
@@ -36787,7 +36787,7 @@
         <v>6628</v>
       </c>
       <c r="M596" t="n">
-        <v>6833.910872102792</v>
+        <v>6762.8</v>
       </c>
     </row>
     <row r="597">
@@ -36848,7 +36848,7 @@
         <v>10262</v>
       </c>
       <c r="M597" t="n">
-        <v>10507.88362019841</v>
+        <v>10269.62</v>
       </c>
     </row>
     <row r="598">
@@ -36909,7 +36909,7 @@
         <v>4544</v>
       </c>
       <c r="M598" t="n">
-        <v>6249.273438529609</v>
+        <v>6908.7315</v>
       </c>
     </row>
     <row r="599">
@@ -36970,7 +36970,7 @@
         <v>12373</v>
       </c>
       <c r="M599" t="n">
-        <v>14158.20717519385</v>
+        <v>14869.23666666667</v>
       </c>
     </row>
     <row r="600">
@@ -37031,7 +37031,7 @@
         <v>11281</v>
       </c>
       <c r="M600" t="n">
-        <v>10960.24511981108</v>
+        <v>10794.5</v>
       </c>
     </row>
     <row r="601">
@@ -37092,7 +37092,7 @@
         <v>6938</v>
       </c>
       <c r="M601" t="n">
-        <v>6748.927945457992</v>
+        <v>6877.27</v>
       </c>
     </row>
     <row r="602">
@@ -37153,7 +37153,7 @@
         <v>15147</v>
       </c>
       <c r="M602" t="n">
-        <v>14949.12489629747</v>
+        <v>15001.08</v>
       </c>
     </row>
     <row r="603">
@@ -37214,7 +37214,7 @@
         <v>11228</v>
       </c>
       <c r="M603" t="n">
-        <v>10917.6115784473</v>
+        <v>10680.69</v>
       </c>
     </row>
     <row r="604">
@@ -37275,7 +37275,7 @@
         <v>5636</v>
       </c>
       <c r="M604" t="n">
-        <v>6080.527885116194</v>
+        <v>5839.33</v>
       </c>
     </row>
     <row r="605">
@@ -37336,7 +37336,7 @@
         <v>4319</v>
       </c>
       <c r="M605" t="n">
-        <v>4379.497997542738</v>
+        <v>4541.479333333334</v>
       </c>
     </row>
     <row r="606">
@@ -37397,7 +37397,7 @@
         <v>6144</v>
       </c>
       <c r="M606" t="n">
-        <v>6693.932183835434</v>
+        <v>6073.690166666666</v>
       </c>
     </row>
     <row r="607">
@@ -37458,7 +37458,7 @@
         <v>14781</v>
       </c>
       <c r="M607" t="n">
-        <v>12136.31506674953</v>
+        <v>12330.33016666667</v>
       </c>
     </row>
     <row r="608">
@@ -37519,7 +37519,7 @@
         <v>8765</v>
       </c>
       <c r="M608" t="n">
-        <v>7722.326387066978</v>
+        <v>7578.56</v>
       </c>
     </row>
     <row r="609">
@@ -37580,7 +37580,7 @@
         <v>8586</v>
       </c>
       <c r="M609" t="n">
-        <v>12359.68463388271</v>
+        <v>13599.625</v>
       </c>
     </row>
     <row r="610">
@@ -37641,7 +37641,7 @@
         <v>2754</v>
       </c>
       <c r="M610" t="n">
-        <v>2890.388413620277</v>
+        <v>2811.73</v>
       </c>
     </row>
     <row r="611">
@@ -37702,7 +37702,7 @@
         <v>3597</v>
       </c>
       <c r="M611" t="n">
-        <v>3623.036232191874</v>
+        <v>3603.1</v>
       </c>
     </row>
     <row r="612">
@@ -37763,7 +37763,7 @@
         <v>4050</v>
       </c>
       <c r="M612" t="n">
-        <v>6105.348881905979</v>
+        <v>5987.805</v>
       </c>
     </row>
     <row r="613">
@@ -37824,7 +37824,7 @@
         <v>11087</v>
       </c>
       <c r="M613" t="n">
-        <v>11293.09308552338</v>
+        <v>10953.05833333333</v>
       </c>
     </row>
     <row r="614">
@@ -37885,7 +37885,7 @@
         <v>8016</v>
       </c>
       <c r="M614" t="n">
-        <v>7533.006867100105</v>
+        <v>7690.628666666666</v>
       </c>
     </row>
     <row r="615">
@@ -37946,7 +37946,7 @@
         <v>15147</v>
       </c>
       <c r="M615" t="n">
-        <v>15783.91017552132</v>
+        <v>15838.73816666667</v>
       </c>
     </row>
     <row r="616">
@@ -38007,7 +38007,7 @@
         <v>7229</v>
       </c>
       <c r="M616" t="n">
-        <v>5788.8320675363</v>
+        <v>4911.54</v>
       </c>
     </row>
     <row r="617">
@@ -38068,7 +38068,7 @@
         <v>13014</v>
       </c>
       <c r="M617" t="n">
-        <v>11530.26133996939</v>
+        <v>10668.26</v>
       </c>
     </row>
     <row r="618">
@@ -38129,7 +38129,7 @@
         <v>2754</v>
       </c>
       <c r="M618" t="n">
-        <v>2989.225470580069</v>
+        <v>3061.15</v>
       </c>
     </row>
     <row r="619">
@@ -38190,7 +38190,7 @@
         <v>5613</v>
       </c>
       <c r="M619" t="n">
-        <v>5551.958277641602</v>
+        <v>5608.8</v>
       </c>
     </row>
     <row r="620">
@@ -38251,7 +38251,7 @@
         <v>6307</v>
       </c>
       <c r="M620" t="n">
-        <v>6187.894063958755</v>
+        <v>6168.16</v>
       </c>
     </row>
     <row r="621">
@@ -38312,7 +38312,7 @@
         <v>4174</v>
       </c>
       <c r="M621" t="n">
-        <v>4245.09976162509</v>
+        <v>4180.28</v>
       </c>
     </row>
     <row r="622">
@@ -38373,7 +38373,7 @@
         <v>4804</v>
       </c>
       <c r="M622" t="n">
-        <v>4804.953420190669</v>
+        <v>4820.8</v>
       </c>
     </row>
     <row r="623">
@@ -38434,7 +38434,7 @@
         <v>14960</v>
       </c>
       <c r="M623" t="n">
-        <v>13838.79036069382</v>
+        <v>14149.43666666667</v>
       </c>
     </row>
     <row r="624">
@@ -38495,7 +38495,7 @@
         <v>9483</v>
       </c>
       <c r="M624" t="n">
-        <v>12325.2112909249</v>
+        <v>12370.13666666667</v>
       </c>
     </row>
     <row r="625">
@@ -38556,7 +38556,7 @@
         <v>8662</v>
       </c>
       <c r="M625" t="n">
-        <v>8596.756383626051</v>
+        <v>8634.370000000001</v>
       </c>
     </row>
     <row r="626">
@@ -38617,7 +38617,7 @@
         <v>19644</v>
       </c>
       <c r="M626" t="n">
-        <v>16931.54466047032</v>
+        <v>17853.23380952381</v>
       </c>
     </row>
     <row r="627">
@@ -38678,7 +38678,7 @@
         <v>4340</v>
       </c>
       <c r="M627" t="n">
-        <v>5651.83791050111</v>
+        <v>5208.079999999999</v>
       </c>
     </row>
     <row r="628">
@@ -38739,7 +38739,7 @@
         <v>10844</v>
       </c>
       <c r="M628" t="n">
-        <v>11826.3986891312</v>
+        <v>11869.13583333334</v>
       </c>
     </row>
     <row r="629">
@@ -38800,7 +38800,7 @@
         <v>8224</v>
       </c>
       <c r="M629" t="n">
-        <v>8258.796567797808</v>
+        <v>8421.700000000001</v>
       </c>
     </row>
     <row r="630">
@@ -38861,7 +38861,7 @@
         <v>7905</v>
       </c>
       <c r="M630" t="n">
-        <v>14370.41897421322</v>
+        <v>13391.46166666666</v>
       </c>
     </row>
     <row r="631">
@@ -38922,7 +38922,7 @@
         <v>11134</v>
       </c>
       <c r="M631" t="n">
-        <v>12743.18567300073</v>
+        <v>13538.7425</v>
       </c>
     </row>
     <row r="632">
@@ -38983,7 +38983,7 @@
         <v>6037</v>
       </c>
       <c r="M632" t="n">
-        <v>6487.339260551631</v>
+        <v>6449.34</v>
       </c>
     </row>
     <row r="633">
@@ -39044,7 +39044,7 @@
         <v>12692</v>
       </c>
       <c r="M633" t="n">
-        <v>11881.5764020476</v>
+        <v>11226.5575</v>
       </c>
     </row>
     <row r="634">
@@ -39105,7 +39105,7 @@
         <v>7308</v>
       </c>
       <c r="M634" t="n">
-        <v>12873.70569544645</v>
+        <v>13371.2575</v>
       </c>
     </row>
     <row r="635">
@@ -39166,7 +39166,7 @@
         <v>11733</v>
       </c>
       <c r="M635" t="n">
-        <v>11572.93106103646</v>
+        <v>11440.15</v>
       </c>
     </row>
     <row r="636">
@@ -39227,7 +39227,7 @@
         <v>14714</v>
       </c>
       <c r="M636" t="n">
-        <v>11503.87817880133</v>
+        <v>10905.14</v>
       </c>
     </row>
     <row r="637">
@@ -39288,7 +39288,7 @@
         <v>14388</v>
       </c>
       <c r="M637" t="n">
-        <v>12266.75727924192</v>
+        <v>11816.15416666667</v>
       </c>
     </row>
     <row r="638">
@@ -39349,7 +39349,7 @@
         <v>7229</v>
       </c>
       <c r="M638" t="n">
-        <v>5691.051777215486</v>
+        <v>5221.486666666667</v>
       </c>
     </row>
     <row r="639">
@@ -39410,7 +39410,7 @@
         <v>7832</v>
       </c>
       <c r="M639" t="n">
-        <v>8057.979185743562</v>
+        <v>8107.73</v>
       </c>
     </row>
     <row r="640">
@@ -39471,7 +39471,7 @@
         <v>10493</v>
       </c>
       <c r="M640" t="n">
-        <v>11960.68888544368</v>
+        <v>11349.2</v>
       </c>
     </row>
     <row r="641">
@@ -39532,7 +39532,7 @@
         <v>14053</v>
       </c>
       <c r="M641" t="n">
-        <v>15441.64896315334</v>
+        <v>15669.84733333333</v>
       </c>
     </row>
     <row r="642">
@@ -39593,7 +39593,7 @@
         <v>7295</v>
       </c>
       <c r="M642" t="n">
-        <v>7078.782132811146</v>
+        <v>7387.86</v>
       </c>
     </row>
     <row r="643">
@@ -39654,7 +39654,7 @@
         <v>11222</v>
       </c>
       <c r="M643" t="n">
-        <v>11742.21629546794</v>
+        <v>11625.79</v>
       </c>
     </row>
     <row r="644">
@@ -39715,7 +39715,7 @@
         <v>7670</v>
       </c>
       <c r="M644" t="n">
-        <v>8050.987981545452</v>
+        <v>8481.469999999999</v>
       </c>
     </row>
     <row r="645">
@@ -39776,7 +39776,7 @@
         <v>10877</v>
       </c>
       <c r="M645" t="n">
-        <v>11131.10533063788</v>
+        <v>11226.05</v>
       </c>
     </row>
     <row r="646">
@@ -39837,7 +39837,7 @@
         <v>17057</v>
       </c>
       <c r="M646" t="n">
-        <v>15974.47490164648</v>
+        <v>16171.02958333333</v>
       </c>
     </row>
     <row r="647">
@@ -39898,7 +39898,7 @@
         <v>11507</v>
       </c>
       <c r="M647" t="n">
-        <v>12114.49606055434</v>
+        <v>11855.1845</v>
       </c>
     </row>
     <row r="648">
@@ -39959,7 +39959,7 @@
         <v>4466</v>
       </c>
       <c r="M648" t="n">
-        <v>8099.986032003957</v>
+        <v>8398.717500000001</v>
       </c>
     </row>
     <row r="649">
@@ -40020,7 +40020,7 @@
         <v>13801</v>
       </c>
       <c r="M649" t="n">
-        <v>13448.9745338829</v>
+        <v>13239.92</v>
       </c>
     </row>
     <row r="650">
@@ -40081,7 +40081,7 @@
         <v>4778</v>
       </c>
       <c r="M650" t="n">
-        <v>6201.531338929965</v>
+        <v>5595.42</v>
       </c>
     </row>
     <row r="651">
@@ -40142,7 +40142,7 @@
         <v>12384</v>
       </c>
       <c r="M651" t="n">
-        <v>12808.17931505552</v>
+        <v>12636.4475</v>
       </c>
     </row>
     <row r="652">
@@ -40203,7 +40203,7 @@
         <v>10678</v>
       </c>
       <c r="M652" t="n">
-        <v>9974.878087483296</v>
+        <v>9931.440000000001</v>
       </c>
     </row>
     <row r="653">
@@ -40264,7 +40264,7 @@
         <v>9790</v>
       </c>
       <c r="M653" t="n">
-        <v>11907.28608237047</v>
+        <v>11873.64066666666</v>
       </c>
     </row>
     <row r="654">
@@ -40325,7 +40325,7 @@
         <v>14388</v>
       </c>
       <c r="M654" t="n">
-        <v>10780.82519809174</v>
+        <v>10250.82416666667</v>
       </c>
     </row>
     <row r="655">
@@ -40386,7 +40386,7 @@
         <v>4319</v>
       </c>
       <c r="M655" t="n">
-        <v>3676.747465573626</v>
+        <v>4161.35</v>
       </c>
     </row>
     <row r="656">
@@ -40447,7 +40447,7 @@
         <v>5678</v>
       </c>
       <c r="M656" t="n">
-        <v>4481.821755282855</v>
+        <v>4677.510666666666</v>
       </c>
     </row>
     <row r="657">
@@ -40508,7 +40508,7 @@
         <v>5613</v>
       </c>
       <c r="M657" t="n">
-        <v>5397.422463813859</v>
+        <v>5401.59</v>
       </c>
     </row>
     <row r="658">
@@ -40569,7 +40569,7 @@
         <v>9663</v>
       </c>
       <c r="M658" t="n">
-        <v>11985.20850903291</v>
+        <v>13083.91166666667</v>
       </c>
     </row>
     <row r="659">
@@ -40630,7 +40630,7 @@
         <v>5769</v>
       </c>
       <c r="M659" t="n">
-        <v>7517.538516827908</v>
+        <v>7816.556833333333</v>
       </c>
     </row>
     <row r="660">
@@ -40691,7 +40691,7 @@
         <v>4668</v>
       </c>
       <c r="M660" t="n">
-        <v>5037.934708924245</v>
+        <v>5276.83</v>
       </c>
     </row>
     <row r="661">
@@ -40752,7 +40752,7 @@
         <v>4878</v>
       </c>
       <c r="M661" t="n">
-        <v>5654.303514442551</v>
+        <v>5427.070833333334</v>
       </c>
     </row>
     <row r="662">
@@ -40813,7 +40813,7 @@
         <v>8372</v>
       </c>
       <c r="M662" t="n">
-        <v>8856.340971668986</v>
+        <v>8610.83</v>
       </c>
     </row>
     <row r="663">
@@ -40874,7 +40874,7 @@
         <v>12352</v>
       </c>
       <c r="M663" t="n">
-        <v>12544.8250329739</v>
+        <v>12297.71</v>
       </c>
     </row>
     <row r="664">
@@ -40935,7 +40935,7 @@
         <v>11733</v>
       </c>
       <c r="M664" t="n">
-        <v>11987.97290724384</v>
+        <v>11270.85133333333</v>
       </c>
     </row>
     <row r="665">
@@ -40996,7 +40996,7 @@
         <v>4823</v>
       </c>
       <c r="M665" t="n">
-        <v>4982.056852007707</v>
+        <v>4995.26</v>
       </c>
     </row>
     <row r="666">
@@ -41057,7 +41057,7 @@
         <v>4804</v>
       </c>
       <c r="M666" t="n">
-        <v>4771.100321641829</v>
+        <v>4770.65</v>
       </c>
     </row>
     <row r="667">
@@ -41118,7 +41118,7 @@
         <v>10262</v>
       </c>
       <c r="M667" t="n">
-        <v>10737.91970027922</v>
+        <v>10340.738</v>
       </c>
     </row>
     <row r="668">
@@ -41179,7 +41179,7 @@
         <v>11087</v>
       </c>
       <c r="M668" t="n">
-        <v>12426.84819716555</v>
+        <v>11381.63</v>
       </c>
     </row>
     <row r="669">
@@ -41240,7 +41240,7 @@
         <v>21219</v>
       </c>
       <c r="M669" t="n">
-        <v>16931.54466047032</v>
+        <v>17853.23380952381</v>
       </c>
     </row>
     <row r="670">
@@ -41301,7 +41301,7 @@
         <v>9929</v>
       </c>
       <c r="M670" t="n">
-        <v>9035.269240659605</v>
+        <v>9232.57</v>
       </c>
     </row>
     <row r="671">
@@ -41362,7 +41362,7 @@
         <v>11411</v>
       </c>
       <c r="M671" t="n">
-        <v>12461.81603031607</v>
+        <v>12403.4</v>
       </c>
     </row>
     <row r="672">
@@ -41423,7 +41423,7 @@
         <v>3100</v>
       </c>
       <c r="M672" t="n">
-        <v>3056.829527885114</v>
+        <v>3097.29</v>
       </c>
     </row>
     <row r="673">
@@ -41484,7 +41484,7 @@
         <v>11150</v>
       </c>
       <c r="M673" t="n">
-        <v>12436.65676966508</v>
+        <v>12034.5410995671</v>
       </c>
     </row>
     <row r="674">
@@ -41545,7 +41545,7 @@
         <v>16704</v>
       </c>
       <c r="M674" t="n">
-        <v>15926.00579390404</v>
+        <v>16391.775</v>
       </c>
     </row>
     <row r="675">
@@ -41606,7 +41606,7 @@
         <v>11087</v>
       </c>
       <c r="M675" t="n">
-        <v>11573.38489645355</v>
+        <v>11512.1</v>
       </c>
     </row>
     <row r="676">
@@ -41667,7 +41667,7 @@
         <v>3100</v>
       </c>
       <c r="M676" t="n">
-        <v>3171.28535240129</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="677">
@@ -41728,7 +41728,7 @@
         <v>9794</v>
       </c>
       <c r="M677" t="n">
-        <v>10009.38201329216</v>
+        <v>9777.32</v>
       </c>
     </row>
     <row r="678">
@@ -41789,7 +41789,7 @@
         <v>3257</v>
       </c>
       <c r="M678" t="n">
-        <v>3503.554520994265</v>
+        <v>3402.174666666667</v>
       </c>
     </row>
     <row r="679">
@@ -41850,7 +41850,7 @@
         <v>4107</v>
       </c>
       <c r="M679" t="n">
-        <v>4213.387816132464</v>
+        <v>4007.2</v>
       </c>
     </row>
     <row r="680">
@@ -41911,7 +41911,7 @@
         <v>4145</v>
       </c>
       <c r="M680" t="n">
-        <v>4262.671123027119</v>
+        <v>4300.04</v>
       </c>
     </row>
     <row r="681">
@@ -41972,7 +41972,7 @@
         <v>7229</v>
       </c>
       <c r="M681" t="n">
-        <v>6096.762970250039</v>
+        <v>5711.456833333334</v>
       </c>
     </row>
     <row r="682">
@@ -42033,7 +42033,7 @@
         <v>12648</v>
       </c>
       <c r="M682" t="n">
-        <v>15326.49828435592</v>
+        <v>15720.42</v>
       </c>
     </row>
     <row r="683">
@@ -42094,7 +42094,7 @@
         <v>11753</v>
       </c>
       <c r="M683" t="n">
-        <v>12354.07482215057</v>
+        <v>12854.74</v>
       </c>
     </row>
   </sheetData>
